--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_17_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1453375.692401223</v>
+        <v>1448203.739377002</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16665871.46213525</v>
+        <v>16665871.46213526</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8914579.287706591</v>
+        <v>8914579.287706595</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6049717.878061801</v>
+        <v>6049717.878061802</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.9958482165469</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>319.9958482165469</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>319.995848216547</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>176.9844992109817</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>319.995848216547</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>281.8523431091345</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>319.9958482165469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>46.12193170011327</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>207.8879308598484</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>170.2485974649549</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.7444295536388</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>229.301066964029</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>236.9826520243818</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -1593,7 +1593,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.26433923891653</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>165.2849579254252</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>116.5673851837092</v>
       </c>
       <c r="T14" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>112.2051428657949</v>
+        <v>50.24155756670309</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1751,7 +1751,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>109.3011156151988</v>
+        <v>139.0232477066574</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T16" t="n">
         <v>229.301066964029</v>
@@ -1827,13 +1827,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>55.2706047268922</v>
@@ -1897,19 +1897,19 @@
         <v>116.5673851837092</v>
       </c>
       <c r="T17" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.0257022040986</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>115.2240820206278</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>192.2756640161703</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
@@ -1943,7 +1943,7 @@
         <v>76.46594728151749</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>112.5246600068256</v>
+        <v>60.86563262090004</v>
       </c>
       <c r="T18" t="n">
         <v>170.6446426827978</v>
@@ -1982,16 +1982,16 @@
         <v>207.8879308598484</v>
       </c>
       <c r="V18" t="n">
-        <v>134.5171671559171</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>165.6211146840253</v>
@@ -2052,19 +2052,19 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S19" t="n">
-        <v>131.2221860272406</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T19" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>105.2958521457846</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>222.8805866031137</v>
+        <v>91.92662627174228</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T20" t="n">
         <v>211.9907646989572</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -2171,13 +2171,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>68.12617639928126</v>
       </c>
       <c r="G21" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>36.12406164560833</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>112.5246600068256</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U21" t="n">
         <v>207.8879308598484</v>
@@ -2225,7 +2225,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -2244,7 +2244,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>133.0573469774139</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -2253,13 +2253,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>95.13904728079712</v>
       </c>
       <c r="U22" t="n">
         <v>282.5325639126531</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>108.8186088051198</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.70007738255789</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U23" t="n">
         <v>253.0257022040986</v>
@@ -2414,7 +2414,7 @@
         <v>117.7255881187514</v>
       </c>
       <c r="H24" t="n">
-        <v>76.46594728151749</v>
+        <v>76.46594728151821</v>
       </c>
       <c r="I24" t="n">
         <v>9.862643306510172</v>
@@ -2453,7 +2453,7 @@
         <v>170.6446426827978</v>
       </c>
       <c r="U24" t="n">
-        <v>207.8879308598479</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2481,13 +2481,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>104.919520466869</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U25" t="n">
         <v>282.5325639126531</v>
@@ -2538,7 +2538,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>50.14319098899067</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>329.421060032717</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0573739265683</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2693,7 +2693,7 @@
         <v>207.8879308598484</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126434</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.1988123799188</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144.0874049898984</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T28" t="n">
         <v>229.301066964029</v>
@@ -2775,13 +2775,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>142.1932104847608</v>
       </c>
       <c r="G29" t="n">
         <v>406.9123771362669</v>
@@ -2812,7 +2812,7 @@
         <v>299.1435630876019</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>253.3372145005797</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>54.6375542361561</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -2967,7 +2967,7 @@
         <v>165.6211146840253</v>
       </c>
       <c r="H31" t="n">
-        <v>45.29795863038968</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I31" t="n">
         <v>103.182400879764</v>
@@ -3000,25 +3000,25 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T31" t="n">
         <v>229.301066964029</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>265.1794907963207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>257.7416784354517</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>112.5246600068256</v>
+        <v>112.5246600068259</v>
       </c>
       <c r="T33" t="n">
         <v>170.6446426827978</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.2250660264325</v>
       </c>
       <c r="T34" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.39121746016028</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.5282462101731</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>276.1414694235247</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>406.9123771362669</v>
       </c>
       <c r="H35" t="n">
-        <v>186.6153630279778</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>55.2706047268922</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>117.7255881187514</v>
@@ -3365,7 +3365,7 @@
         <v>76.46594728151749</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T36" t="n">
-        <v>148.6388711823836</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U36" t="n">
         <v>207.8879308598484</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>163.054984577683</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -3426,10 +3426,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>127.6899077762118</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -3438,13 +3438,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>79.92859893709533</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U37" t="n">
-        <v>127.0619242219424</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>154.6539506703636</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>193.3449091890398</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.6446426827978</v>
+        <v>125.6818436718786</v>
       </c>
       <c r="U39" t="n">
-        <v>21.03536892939131</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>148.1533837637116</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>282.5325639126531</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>160.7795516868173</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>319.9958482165469</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>319.9958482165469</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.9958482165469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>117.7255881187514</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>76.46594728151749</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8879308598484</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>91.09240146257213</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.38186643561617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H43" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I43" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V43" t="n">
-        <v>80.35078336501151</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>146.8343132563013</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>20.26433923891653</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>157.6840095515704</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.9907646989572</v>
@@ -4036,7 +4036,7 @@
         <v>253.0257022040986</v>
       </c>
       <c r="V44" t="n">
-        <v>319.9958482165469</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>319.9958482165469</v>
@@ -4058,13 +4058,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>70.60782915294931</v>
+        <v>170.6446426827978</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8879308598484</v>
+        <v>33.59745850955242</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>93.16073128929071</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U46" t="n">
-        <v>245.4027784168871</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.8277973689873</v>
+        <v>583.428912457749</v>
       </c>
       <c r="C11" t="n">
-        <v>25.59966785732375</v>
+        <v>583.428912457749</v>
       </c>
       <c r="D11" t="n">
-        <v>25.59966785732375</v>
+        <v>583.428912457749</v>
       </c>
       <c r="E11" t="n">
-        <v>25.59966785732375</v>
+        <v>583.428912457749</v>
       </c>
       <c r="F11" t="n">
-        <v>25.59966785732375</v>
+        <v>260.2007829460853</v>
       </c>
       <c r="G11" t="n">
-        <v>25.59966785732375</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="H11" t="n">
-        <v>25.59966785732375</v>
+        <v>81.42856152085125</v>
       </c>
       <c r="I11" t="n">
-        <v>25.59966785732375</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="J11" t="n">
-        <v>87.12469248054288</v>
+        <v>87.12469248054299</v>
       </c>
       <c r="K11" t="n">
-        <v>212.3147925332974</v>
+        <v>212.3147925332978</v>
       </c>
       <c r="L11" t="n">
-        <v>391.6103269222914</v>
+        <v>391.6103269222916</v>
       </c>
       <c r="M11" t="n">
-        <v>611.6962898196853</v>
+        <v>611.6962898196855</v>
       </c>
       <c r="N11" t="n">
-        <v>838.3424491357905</v>
+        <v>838.3424491357907</v>
       </c>
       <c r="O11" t="n">
-        <v>1043.69007063873</v>
+        <v>1043.690070638731</v>
       </c>
       <c r="P11" t="n">
         <v>1196.523864148038</v>
@@ -5068,25 +5068,25 @@
         <v>1279.983392866188</v>
       </c>
       <c r="S11" t="n">
-        <v>1279.983392866188</v>
+        <v>1162.23855934729</v>
       </c>
       <c r="T11" t="n">
-        <v>1279.983392866188</v>
+        <v>1162.23855934729</v>
       </c>
       <c r="U11" t="n">
-        <v>1279.983392866188</v>
+        <v>906.6570419694126</v>
       </c>
       <c r="V11" t="n">
-        <v>1279.983392866188</v>
+        <v>583.428912457749</v>
       </c>
       <c r="W11" t="n">
-        <v>1279.983392866188</v>
+        <v>583.428912457749</v>
       </c>
       <c r="X11" t="n">
-        <v>995.2840563923144</v>
+        <v>583.428912457749</v>
       </c>
       <c r="Y11" t="n">
-        <v>672.0559268806509</v>
+        <v>583.428912457749</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>478.2029344579243</v>
+        <v>172.0084247126079</v>
       </c>
       <c r="C12" t="n">
-        <v>327.5487040180165</v>
+        <v>172.0084247126079</v>
       </c>
       <c r="D12" t="n">
-        <v>280.9608942199223</v>
+        <v>172.0084247126079</v>
       </c>
       <c r="E12" t="n">
-        <v>144.51440333081</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="F12" t="n">
-        <v>144.51440333081</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="G12" t="n">
-        <v>25.59966785732375</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59966785732375</v>
+        <v>35.56193382349565</v>
       </c>
       <c r="I12" t="n">
-        <v>25.59966785732375</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="J12" t="n">
-        <v>50.01195051225362</v>
+        <v>50.01195051225363</v>
       </c>
       <c r="K12" t="n">
-        <v>322.4096301802959</v>
+        <v>142.5370659719024</v>
       </c>
       <c r="L12" t="n">
-        <v>476.9307179750908</v>
+        <v>297.0581537666973</v>
       </c>
       <c r="M12" t="n">
-        <v>669.8315034547302</v>
+        <v>489.9589392463366</v>
       </c>
       <c r="N12" t="n">
-        <v>877.2034179270498</v>
+        <v>697.3308537186563</v>
       </c>
       <c r="O12" t="n">
-        <v>1052.465339398124</v>
+        <v>872.5927751897301</v>
       </c>
       <c r="P12" t="n">
-        <v>1180.561989684466</v>
+        <v>1000.689425476072</v>
       </c>
       <c r="Q12" t="n">
         <v>1233.743730397334</v>
@@ -5153,19 +5153,19 @@
         <v>1107.615066923968</v>
       </c>
       <c r="U12" t="n">
-        <v>897.6272579746258</v>
+        <v>897.6272579746262</v>
       </c>
       <c r="V12" t="n">
-        <v>897.6272579746258</v>
+        <v>675.0872563456933</v>
       </c>
       <c r="W12" t="n">
-        <v>667.5100121079126</v>
+        <v>675.0872563456933</v>
       </c>
       <c r="X12" t="n">
-        <v>478.2029344579243</v>
+        <v>503.1189760780621</v>
       </c>
       <c r="Y12" t="n">
-        <v>478.2029344579243</v>
+        <v>323.8047591535693</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182.9256026443508</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="C13" t="n">
-        <v>182.9256026443508</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="D13" t="n">
-        <v>182.9256026443508</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="E13" t="n">
-        <v>182.9256026443508</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="F13" t="n">
-        <v>25.59966785732375</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="G13" t="n">
-        <v>25.59966785732375</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="H13" t="n">
-        <v>25.59966785732375</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="I13" t="n">
-        <v>25.59966785732375</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="J13" t="n">
-        <v>62.34717989579781</v>
+        <v>62.34717989579782</v>
       </c>
       <c r="K13" t="n">
-        <v>88.64200415182638</v>
+        <v>253.4970768945078</v>
       </c>
       <c r="L13" t="n">
-        <v>141.7290947148428</v>
+        <v>557.5100965183008</v>
       </c>
       <c r="M13" t="n">
-        <v>433.8184465183131</v>
+        <v>874.3059862526823</v>
       </c>
       <c r="N13" t="n">
-        <v>750.6143362526946</v>
+        <v>1002.415885788164</v>
       </c>
       <c r="O13" t="n">
-        <v>1046.310291037639</v>
+        <v>1046.31029103764</v>
       </c>
       <c r="P13" t="n">
         <v>1279.983392866188</v>
@@ -5226,25 +5226,25 @@
         <v>1279.983392866188</v>
       </c>
       <c r="S13" t="n">
-        <v>1093.897467586963</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="T13" t="n">
-        <v>862.2802282293578</v>
+        <v>1048.366153508583</v>
       </c>
       <c r="U13" t="n">
-        <v>862.2802282293578</v>
+        <v>808.9897373223388</v>
       </c>
       <c r="V13" t="n">
-        <v>596.3008830501821</v>
+        <v>543.010392143163</v>
       </c>
       <c r="W13" t="n">
-        <v>312.9704809813597</v>
+        <v>259.6799900743407</v>
       </c>
       <c r="X13" t="n">
-        <v>312.9704809813597</v>
+        <v>25.59966785732376</v>
       </c>
       <c r="Y13" t="n">
-        <v>312.9704809813597</v>
+        <v>25.59966785732376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.59966785732375</v>
+        <v>192.5541708122988</v>
       </c>
       <c r="C14" t="n">
         <v>25.59966785732375</v>
@@ -5278,7 +5278,7 @@
         <v>25.59966785732375</v>
       </c>
       <c r="J14" t="n">
-        <v>87.12469248054289</v>
+        <v>87.12469248054293</v>
       </c>
       <c r="K14" t="n">
         <v>212.3147925332974</v>
@@ -5308,22 +5308,22 @@
         <v>1162.23855934729</v>
       </c>
       <c r="T14" t="n">
-        <v>948.1064737927874</v>
+        <v>1162.23855934729</v>
       </c>
       <c r="U14" t="n">
-        <v>692.52495641491</v>
+        <v>1162.23855934729</v>
       </c>
       <c r="V14" t="n">
-        <v>692.52495641491</v>
+        <v>1162.23855934729</v>
       </c>
       <c r="W14" t="n">
-        <v>692.52495641491</v>
+        <v>1162.23855934729</v>
       </c>
       <c r="X14" t="n">
-        <v>369.2968269032464</v>
+        <v>839.0104298356259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.06869739158287</v>
+        <v>515.7823003239623</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>421.0121275646139</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="C15" t="n">
-        <v>421.0121275646139</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="D15" t="n">
-        <v>290.9231601860942</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="E15" t="n">
-        <v>154.4766692969819</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="F15" t="n">
-        <v>154.4766692969819</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="G15" t="n">
-        <v>35.56193382349564</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="H15" t="n">
-        <v>35.56193382349564</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="I15" t="n">
         <v>25.59966785732375</v>
@@ -5363,46 +5363,46 @@
         <v>142.5370659719023</v>
       </c>
       <c r="L15" t="n">
-        <v>459.3329557062838</v>
+        <v>297.0581537666973</v>
       </c>
       <c r="M15" t="n">
-        <v>652.2337411859231</v>
+        <v>489.9589392463366</v>
       </c>
       <c r="N15" t="n">
-        <v>877.2034179270498</v>
+        <v>697.3308537186563</v>
       </c>
       <c r="O15" t="n">
-        <v>1052.465339398124</v>
+        <v>872.5927751897301</v>
       </c>
       <c r="P15" t="n">
-        <v>1180.561989684466</v>
+        <v>1000.689425476072</v>
       </c>
       <c r="Q15" t="n">
-        <v>1233.743730397334</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="R15" t="n">
         <v>1279.983392866188</v>
       </c>
       <c r="S15" t="n">
-        <v>1166.32212013202</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="T15" t="n">
-        <v>1166.32212013202</v>
+        <v>1107.615066923968</v>
       </c>
       <c r="U15" t="n">
-        <v>1166.32212013202</v>
+        <v>897.6272579746258</v>
       </c>
       <c r="V15" t="n">
-        <v>943.7821185030873</v>
+        <v>675.0872563456928</v>
       </c>
       <c r="W15" t="n">
-        <v>713.6648726363742</v>
+        <v>444.9700104789797</v>
       </c>
       <c r="X15" t="n">
-        <v>713.6648726363742</v>
+        <v>255.6629328289914</v>
       </c>
       <c r="Y15" t="n">
-        <v>534.3506557118815</v>
+        <v>76.34871590449859</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>293.3307699324304</v>
+        <v>312.9704809813597</v>
       </c>
       <c r="C16" t="n">
-        <v>293.3307699324304</v>
+        <v>312.9704809813597</v>
       </c>
       <c r="D16" t="n">
-        <v>293.3307699324304</v>
+        <v>312.9704809813597</v>
       </c>
       <c r="E16" t="n">
-        <v>182.9256026443508</v>
+        <v>172.5429580453421</v>
       </c>
       <c r="F16" t="n">
-        <v>25.59966785732375</v>
+        <v>172.5429580453421</v>
       </c>
       <c r="G16" t="n">
-        <v>25.59966785732375</v>
+        <v>172.5429580453421</v>
       </c>
       <c r="H16" t="n">
         <v>25.59966785732375</v>
@@ -5436,52 +5436,52 @@
         <v>25.59966785732375</v>
       </c>
       <c r="J16" t="n">
-        <v>25.59966785732375</v>
+        <v>62.34717989579781</v>
       </c>
       <c r="K16" t="n">
-        <v>51.89449211335233</v>
+        <v>253.4970768945078</v>
       </c>
       <c r="L16" t="n">
-        <v>355.9075117371454</v>
+        <v>541.5937991302792</v>
       </c>
       <c r="M16" t="n">
-        <v>413.9982893357214</v>
+        <v>858.3896888646607</v>
       </c>
       <c r="N16" t="n">
-        <v>730.7941790701028</v>
+        <v>920.2065894500809</v>
       </c>
       <c r="O16" t="n">
-        <v>1026.490133855048</v>
+        <v>964.100994699557</v>
       </c>
       <c r="P16" t="n">
-        <v>1260.163235683596</v>
+        <v>1197.774096528105</v>
       </c>
       <c r="Q16" t="n">
         <v>1279.983392866188</v>
       </c>
       <c r="R16" t="n">
-        <v>1199.247434343869</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="S16" t="n">
-        <v>1199.247434343869</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="T16" t="n">
-        <v>967.6301949862641</v>
+        <v>862.2802282293578</v>
       </c>
       <c r="U16" t="n">
-        <v>967.6301949862641</v>
+        <v>862.2802282293578</v>
       </c>
       <c r="V16" t="n">
-        <v>701.6508498070883</v>
+        <v>596.3008830501821</v>
       </c>
       <c r="W16" t="n">
-        <v>701.6508498070883</v>
+        <v>312.9704809813597</v>
       </c>
       <c r="X16" t="n">
-        <v>701.6508498070883</v>
+        <v>312.9704809813597</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.5387886237316</v>
+        <v>312.9704809813597</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>394.8194571076046</v>
+        <v>902.7241818346943</v>
       </c>
       <c r="C17" t="n">
-        <v>394.8194571076046</v>
+        <v>509.5486803376249</v>
       </c>
       <c r="D17" t="n">
-        <v>394.8194571076046</v>
+        <v>509.5486803376249</v>
       </c>
       <c r="E17" t="n">
-        <v>394.8194571076046</v>
+        <v>509.5486803376249</v>
       </c>
       <c r="F17" t="n">
-        <v>394.8194571076046</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="G17" t="n">
-        <v>394.8194571076046</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="H17" t="n">
         <v>92.65424186760265</v>
       </c>
       <c r="I17" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J17" t="n">
-        <v>359.503185299045</v>
+        <v>225.9852315517242</v>
       </c>
       <c r="K17" t="n">
-        <v>484.6932853517995</v>
+        <v>351.1753316044787</v>
       </c>
       <c r="L17" t="n">
-        <v>663.9888197407936</v>
+        <v>530.4708659934728</v>
       </c>
       <c r="M17" t="n">
-        <v>884.0747826381875</v>
+        <v>750.5568288908667</v>
       </c>
       <c r="N17" t="n">
-        <v>1339.788466663618</v>
+        <v>977.202988206972</v>
       </c>
       <c r="O17" t="n">
-        <v>1604.974087976301</v>
+        <v>1182.550609709912</v>
       </c>
       <c r="P17" t="n">
-        <v>1757.807881485609</v>
+        <v>1335.384403219219</v>
       </c>
       <c r="Q17" t="n">
-        <v>1841.267410203759</v>
+        <v>1746.743203512526</v>
       </c>
       <c r="R17" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S17" t="n">
-        <v>1723.522576684861</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="T17" t="n">
-        <v>1509.390491130358</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="U17" t="n">
-        <v>1253.808973752481</v>
+        <v>1467.941059306983</v>
       </c>
       <c r="V17" t="n">
-        <v>911.7021644559994</v>
+        <v>1467.941059306983</v>
       </c>
       <c r="W17" t="n">
-        <v>795.3142028190016</v>
+        <v>1096.94202427527</v>
       </c>
       <c r="X17" t="n">
-        <v>795.3142028190016</v>
+        <v>902.7241818346943</v>
       </c>
       <c r="Y17" t="n">
-        <v>795.3142028190016</v>
+        <v>902.7241818346943</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>638.1534182002486</v>
+        <v>654.4732076770131</v>
       </c>
       <c r="C18" t="n">
-        <v>487.4991877603407</v>
+        <v>503.8189772371052</v>
       </c>
       <c r="D18" t="n">
-        <v>357.410220381821</v>
+        <v>503.8189772371052</v>
       </c>
       <c r="E18" t="n">
-        <v>357.410220381821</v>
+        <v>367.3724863479929</v>
       </c>
       <c r="F18" t="n">
-        <v>232.9784142649528</v>
+        <v>242.9406802311247</v>
       </c>
       <c r="G18" t="n">
-        <v>114.0636787914666</v>
+        <v>124.0259447576385</v>
       </c>
       <c r="H18" t="n">
-        <v>36.82534820407518</v>
+        <v>46.78761417024706</v>
       </c>
       <c r="I18" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J18" t="n">
-        <v>61.23763085900505</v>
+        <v>255.9726258387325</v>
       </c>
       <c r="K18" t="n">
-        <v>153.7627463186538</v>
+        <v>348.4977412983812</v>
       </c>
       <c r="L18" t="n">
-        <v>308.2838341134487</v>
+        <v>760.0110346022702</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1846195930881</v>
+        <v>952.9118200819096</v>
       </c>
       <c r="N18" t="n">
-        <v>879.8319719998732</v>
+        <v>1160.283734554229</v>
       </c>
       <c r="O18" t="n">
-        <v>1335.545656025304</v>
+        <v>1335.545656025303</v>
       </c>
       <c r="P18" t="n">
         <v>1463.642306311645</v>
       </c>
       <c r="Q18" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R18" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S18" t="n">
-        <v>1727.606137469591</v>
+        <v>1779.78697321295</v>
       </c>
       <c r="T18" t="n">
-        <v>1555.237811527371</v>
+        <v>1607.41864727073</v>
       </c>
       <c r="U18" t="n">
-        <v>1345.25000257803</v>
+        <v>1397.430838321388</v>
       </c>
       <c r="V18" t="n">
-        <v>1209.374076157911</v>
+        <v>1174.890836692455</v>
       </c>
       <c r="W18" t="n">
-        <v>979.2568302911982</v>
+        <v>1174.890836692455</v>
       </c>
       <c r="X18" t="n">
-        <v>789.9497526412099</v>
+        <v>985.5837590424671</v>
       </c>
       <c r="Y18" t="n">
-        <v>789.9497526412099</v>
+        <v>806.2695421179744</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>610.920454079265</v>
+        <v>782.8183937028175</v>
       </c>
       <c r="C19" t="n">
-        <v>610.920454079265</v>
+        <v>612.6132757688067</v>
       </c>
       <c r="D19" t="n">
-        <v>455.2873409817797</v>
+        <v>612.6132757688067</v>
       </c>
       <c r="E19" t="n">
-        <v>455.2873409817797</v>
+        <v>612.6132757688067</v>
       </c>
       <c r="F19" t="n">
         <v>455.2873409817797</v>
@@ -5670,19 +5670,19 @@
         <v>141.0499955573722</v>
       </c>
       <c r="I19" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J19" t="n">
-        <v>73.57286024254932</v>
+        <v>73.57286024254923</v>
       </c>
       <c r="K19" t="n">
-        <v>264.7227572412593</v>
+        <v>264.7227572412592</v>
       </c>
       <c r="L19" t="n">
-        <v>568.7357768650523</v>
+        <v>568.7357768650522</v>
       </c>
       <c r="M19" t="n">
-        <v>902.5168747721762</v>
+        <v>902.516874772176</v>
       </c>
       <c r="N19" t="n">
         <v>1229.689057252183</v>
@@ -5694,31 +5694,31 @@
         <v>1759.058113865676</v>
       </c>
       <c r="Q19" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R19" t="n">
         <v>1760.53145168144</v>
       </c>
       <c r="S19" t="n">
-        <v>1627.983789027662</v>
+        <v>1574.445526402215</v>
       </c>
       <c r="T19" t="n">
-        <v>1396.366549670057</v>
+        <v>1574.445526402215</v>
       </c>
       <c r="U19" t="n">
-        <v>1110.980121475458</v>
+        <v>1574.445526402215</v>
       </c>
       <c r="V19" t="n">
-        <v>845.000776296282</v>
+        <v>1308.466181223039</v>
       </c>
       <c r="W19" t="n">
-        <v>845.000776296282</v>
+        <v>1202.106734611136</v>
       </c>
       <c r="X19" t="n">
-        <v>610.920454079265</v>
+        <v>968.0264123941188</v>
       </c>
       <c r="Y19" t="n">
-        <v>610.920454079265</v>
+        <v>968.0264123941188</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.957253863786</v>
+        <v>540.7031294242864</v>
       </c>
       <c r="C20" t="n">
-        <v>261.957253863786</v>
+        <v>540.7031294242864</v>
       </c>
       <c r="D20" t="n">
-        <v>261.957253863786</v>
+        <v>540.7031294242864</v>
       </c>
       <c r="E20" t="n">
-        <v>261.957253863786</v>
+        <v>540.7031294242864</v>
       </c>
       <c r="F20" t="n">
-        <v>36.82534820407518</v>
+        <v>447.8479513720215</v>
       </c>
       <c r="G20" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H20" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I20" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J20" t="n">
-        <v>98.35037282729431</v>
+        <v>359.503185299045</v>
       </c>
       <c r="K20" t="n">
-        <v>497.180660234432</v>
+        <v>484.6932853517995</v>
       </c>
       <c r="L20" t="n">
-        <v>952.8943442598624</v>
+        <v>663.9888197407936</v>
       </c>
       <c r="M20" t="n">
-        <v>1172.980307157256</v>
+        <v>884.0747826381875</v>
       </c>
       <c r="N20" t="n">
-        <v>1399.626466473361</v>
+        <v>1110.720941954293</v>
       </c>
       <c r="O20" t="n">
-        <v>1604.974087976301</v>
+        <v>1316.068563457233</v>
       </c>
       <c r="P20" t="n">
-        <v>1757.807881485609</v>
+        <v>1468.90235696654</v>
       </c>
       <c r="Q20" t="n">
-        <v>1841.267410203759</v>
+        <v>1746.743203512526</v>
       </c>
       <c r="R20" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S20" t="n">
-        <v>1841.267410203759</v>
+        <v>1723.52257668486</v>
       </c>
       <c r="T20" t="n">
-        <v>1627.135324649257</v>
+        <v>1509.390491130358</v>
       </c>
       <c r="U20" t="n">
-        <v>1371.553807271379</v>
+        <v>1253.808973752481</v>
       </c>
       <c r="V20" t="n">
-        <v>1029.446997974897</v>
+        <v>911.702164455999</v>
       </c>
       <c r="W20" t="n">
-        <v>658.4479629431848</v>
+        <v>540.7031294242864</v>
       </c>
       <c r="X20" t="n">
-        <v>658.4479629431848</v>
+        <v>540.7031294242864</v>
       </c>
       <c r="Y20" t="n">
-        <v>261.957253863786</v>
+        <v>540.7031294242864</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>733.8505296591495</v>
+        <v>372.1751260669407</v>
       </c>
       <c r="C21" t="n">
-        <v>583.1962992192417</v>
+        <v>372.1751260669407</v>
       </c>
       <c r="D21" t="n">
-        <v>453.1073318407221</v>
+        <v>242.0861586884211</v>
       </c>
       <c r="E21" t="n">
-        <v>316.6608409516098</v>
+        <v>105.6396677993088</v>
       </c>
       <c r="F21" t="n">
-        <v>192.2290348347416</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="G21" t="n">
-        <v>73.31429936125531</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H21" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I21" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J21" t="n">
         <v>255.9726258387325</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2502843386218</v>
+        <v>711.6863098641627</v>
       </c>
       <c r="L21" t="n">
-        <v>713.7713721334167</v>
+        <v>866.2073976589576</v>
       </c>
       <c r="M21" t="n">
-        <v>906.672157613056</v>
+        <v>1231.115520792301</v>
       </c>
       <c r="N21" t="n">
-        <v>1114.044072085376</v>
+        <v>1438.487435264621</v>
       </c>
       <c r="O21" t="n">
-        <v>1289.305993556449</v>
+        <v>1613.749356735694</v>
       </c>
       <c r="P21" t="n">
-        <v>1417.402643842791</v>
+        <v>1741.846007022036</v>
       </c>
       <c r="Q21" t="n">
-        <v>1795.027747734905</v>
+        <v>1795.027747734904</v>
       </c>
       <c r="R21" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S21" t="n">
         <v>1727.606137469591</v>
       </c>
       <c r="T21" t="n">
-        <v>1727.606137469591</v>
+        <v>1555.237811527371</v>
       </c>
       <c r="U21" t="n">
-        <v>1517.61832852025</v>
+        <v>1345.250002578029</v>
       </c>
       <c r="V21" t="n">
-        <v>1295.078326891317</v>
+        <v>1122.710000949096</v>
       </c>
       <c r="W21" t="n">
-        <v>1064.961081024604</v>
+        <v>892.5927550823831</v>
       </c>
       <c r="X21" t="n">
-        <v>1064.961081024604</v>
+        <v>703.2856774323948</v>
       </c>
       <c r="Y21" t="n">
-        <v>885.6468641001109</v>
+        <v>523.9714605079021</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>925.8352762388431</v>
+        <v>675.5483261633958</v>
       </c>
       <c r="C22" t="n">
-        <v>755.6301583048323</v>
+        <v>505.343208229385</v>
       </c>
       <c r="D22" t="n">
-        <v>621.2287977215859</v>
+        <v>349.7100951318997</v>
       </c>
       <c r="E22" t="n">
-        <v>465.6699855807884</v>
+        <v>194.1512829911022</v>
       </c>
       <c r="F22" t="n">
-        <v>308.3440507937614</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="G22" t="n">
-        <v>141.0499955573722</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="H22" t="n">
-        <v>141.0499955573722</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="I22" t="n">
-        <v>36.82534820407518</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="J22" t="n">
-        <v>73.57286024254924</v>
+        <v>73.57286024254915</v>
       </c>
       <c r="K22" t="n">
-        <v>264.7227572412592</v>
+        <v>264.722757241259</v>
       </c>
       <c r="L22" t="n">
-        <v>568.7357768650522</v>
+        <v>568.7357768650521</v>
       </c>
       <c r="M22" t="n">
-        <v>902.516874772176</v>
+        <v>902.5168747721759</v>
       </c>
       <c r="N22" t="n">
         <v>1229.689057252183</v>
@@ -5931,31 +5931,31 @@
         <v>1759.058113865676</v>
       </c>
       <c r="Q22" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R22" t="n">
         <v>1760.53145168144</v>
       </c>
       <c r="S22" t="n">
-        <v>1760.53145168144</v>
+        <v>1574.445526402215</v>
       </c>
       <c r="T22" t="n">
-        <v>1760.53145168144</v>
+        <v>1478.345478643834</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.145023486841</v>
+        <v>1192.959050449235</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.165678307666</v>
+        <v>1192.959050449235</v>
       </c>
       <c r="W22" t="n">
-        <v>925.8352762388431</v>
+        <v>909.6286483804128</v>
       </c>
       <c r="X22" t="n">
-        <v>925.8352762388431</v>
+        <v>675.5483261633958</v>
       </c>
       <c r="Y22" t="n">
-        <v>925.8352762388431</v>
+        <v>675.5483261633958</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>456.2640135962785</v>
+        <v>572.0536355701926</v>
       </c>
       <c r="C23" t="n">
-        <v>456.2640135962785</v>
+        <v>572.0536355701926</v>
       </c>
       <c r="D23" t="n">
-        <v>456.2640135962785</v>
+        <v>572.0536355701926</v>
       </c>
       <c r="E23" t="n">
-        <v>456.2640135962785</v>
+        <v>462.1358488983544</v>
       </c>
       <c r="F23" t="n">
-        <v>456.2640135962785</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="G23" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="H23" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="I23" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J23" t="n">
         <v>367.919247523302</v>
       </c>
       <c r="K23" t="n">
-        <v>771.9784428173273</v>
+        <v>493.1093475760565</v>
       </c>
       <c r="L23" t="n">
-        <v>951.2739772063213</v>
+        <v>672.4048819650505</v>
       </c>
       <c r="M23" t="n">
-        <v>1171.359940103715</v>
+        <v>892.4908448624444</v>
       </c>
       <c r="N23" t="n">
-        <v>1398.00609941982</v>
+        <v>1119.13700417855</v>
       </c>
       <c r="O23" t="n">
-        <v>1603.35372092276</v>
+        <v>1678.99945822916</v>
       </c>
       <c r="P23" t="n">
-        <v>1756.187514432068</v>
+        <v>1831.833251738468</v>
       </c>
       <c r="Q23" t="n">
-        <v>2167.546314725374</v>
+        <v>2167.546314725375</v>
       </c>
       <c r="R23" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S23" t="n">
-        <v>2214.89872608069</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="T23" t="n">
-        <v>2214.89872608069</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="U23" t="n">
-        <v>1959.317208702812</v>
+        <v>1674.61208496533</v>
       </c>
       <c r="V23" t="n">
-        <v>1617.210399406331</v>
+        <v>1332.505275668848</v>
       </c>
       <c r="W23" t="n">
-        <v>1246.211364374618</v>
+        <v>961.5062406371358</v>
       </c>
       <c r="X23" t="n">
-        <v>856.7587593076753</v>
+        <v>572.0536355701926</v>
       </c>
       <c r="Y23" t="n">
-        <v>856.7587593076753</v>
+        <v>572.0536355701926</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>792.9782372797899</v>
+        <v>792.9782372797904</v>
       </c>
       <c r="C24" t="n">
-        <v>642.324006839882</v>
+        <v>642.3240068398826</v>
       </c>
       <c r="D24" t="n">
-        <v>512.2350394613622</v>
+        <v>512.2350394613629</v>
       </c>
       <c r="E24" t="n">
-        <v>375.78854857225</v>
+        <v>375.7885485722506</v>
       </c>
       <c r="F24" t="n">
-        <v>251.3567424553817</v>
+        <v>251.3567424553825</v>
       </c>
       <c r="G24" t="n">
-        <v>132.4420069818954</v>
+        <v>132.4420069818962</v>
       </c>
       <c r="H24" t="n">
-        <v>55.20367639450403</v>
+        <v>55.20367639450405</v>
       </c>
       <c r="I24" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J24" t="n">
         <v>264.3886880629894</v>
       </c>
       <c r="K24" t="n">
-        <v>356.9138035226382</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L24" t="n">
-        <v>511.4348913174331</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M24" t="n">
-        <v>1071.297345368043</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N24" t="n">
-        <v>1631.159799418654</v>
+        <v>1320.147703311619</v>
       </c>
       <c r="O24" t="n">
-        <v>1806.421720889727</v>
+        <v>1495.409624782692</v>
       </c>
       <c r="P24" t="n">
-        <v>1934.518371176069</v>
+        <v>1838.20575505564</v>
       </c>
       <c r="Q24" t="n">
-        <v>2215.830858947753</v>
+        <v>2215.830858947754</v>
       </c>
       <c r="R24" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S24" t="n">
-        <v>2148.40924868244</v>
+        <v>2148.409248682441</v>
       </c>
       <c r="T24" t="n">
-        <v>1976.04092274022</v>
+        <v>1976.040922740221</v>
       </c>
       <c r="U24" t="n">
-        <v>1766.053113790878</v>
+        <v>1766.053113790879</v>
       </c>
       <c r="V24" t="n">
-        <v>1543.513112161945</v>
+        <v>1543.513112161946</v>
       </c>
       <c r="W24" t="n">
-        <v>1313.395866295232</v>
+        <v>1313.395866295233</v>
       </c>
       <c r="X24" t="n">
         <v>1124.088788645244</v>
       </c>
       <c r="Y24" t="n">
-        <v>944.7745717207513</v>
+        <v>944.7745717207517</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>477.0589550627261</v>
+        <v>372.77246314937</v>
       </c>
       <c r="C25" t="n">
-        <v>306.8538371287153</v>
+        <v>202.5673452153592</v>
       </c>
       <c r="D25" t="n">
-        <v>151.2207240312301</v>
+        <v>202.5673452153592</v>
       </c>
       <c r="E25" t="n">
-        <v>151.2207240312301</v>
+        <v>202.5673452153592</v>
       </c>
       <c r="F25" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="G25" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="H25" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="I25" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J25" t="n">
-        <v>81.9889224668062</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K25" t="n">
-        <v>273.1388194655161</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L25" t="n">
-        <v>577.1518390893092</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M25" t="n">
-        <v>910.932936996433</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N25" t="n">
         <v>1238.10511947644</v>
@@ -6171,28 +6171,28 @@
         <v>1849.683472428016</v>
       </c>
       <c r="R25" t="n">
-        <v>1768.947513905697</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="S25" t="n">
-        <v>1768.947513905697</v>
+        <v>1663.597547148791</v>
       </c>
       <c r="T25" t="n">
-        <v>1768.947513905697</v>
+        <v>1431.980307791186</v>
       </c>
       <c r="U25" t="n">
-        <v>1483.561085711098</v>
+        <v>1146.593879596587</v>
       </c>
       <c r="V25" t="n">
-        <v>1217.581740531922</v>
+        <v>880.6145344174109</v>
       </c>
       <c r="W25" t="n">
-        <v>934.2513384630997</v>
+        <v>829.9648465497436</v>
       </c>
       <c r="X25" t="n">
-        <v>700.1710162460828</v>
+        <v>595.8845243327266</v>
       </c>
       <c r="Y25" t="n">
-        <v>477.0589550627261</v>
+        <v>372.77246314937</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1861.57577570521</v>
+        <v>1191.596083967327</v>
       </c>
       <c r="C26" t="n">
-        <v>1468.40027420814</v>
+        <v>1191.596083967327</v>
       </c>
       <c r="D26" t="n">
-        <v>1082.959145424808</v>
+        <v>858.8475384797339</v>
       </c>
       <c r="E26" t="n">
-        <v>680.3756205413526</v>
+        <v>456.2640135962785</v>
       </c>
       <c r="F26" t="n">
-        <v>263.4811820713304</v>
+        <v>456.2640135962785</v>
       </c>
       <c r="G26" t="n">
-        <v>263.4811820713304</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="H26" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="I26" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J26" t="n">
-        <v>106.7664350515513</v>
+        <v>367.919247523302</v>
       </c>
       <c r="K26" t="n">
-        <v>231.9565351043058</v>
+        <v>493.1093475760565</v>
       </c>
       <c r="L26" t="n">
-        <v>791.8189891549159</v>
+        <v>1052.971801626667</v>
       </c>
       <c r="M26" t="n">
-        <v>1011.90495205231</v>
+        <v>1273.057764524061</v>
       </c>
       <c r="N26" t="n">
-        <v>1465.914745138539</v>
+        <v>1820.42957768621</v>
       </c>
       <c r="O26" t="n">
-        <v>2025.777199189149</v>
+        <v>2025.77719918915</v>
       </c>
       <c r="P26" t="n">
-        <v>2178.610992698457</v>
+        <v>2178.610992698458</v>
       </c>
       <c r="Q26" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="R26" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S26" t="n">
-        <v>2262.070521416607</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="T26" t="n">
-        <v>2262.070521416607</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="U26" t="n">
-        <v>2262.070521416607</v>
+        <v>1930.193602343207</v>
       </c>
       <c r="V26" t="n">
-        <v>2262.070521416607</v>
+        <v>1588.086793046726</v>
       </c>
       <c r="W26" t="n">
-        <v>2262.070521416607</v>
+        <v>1588.086793046726</v>
       </c>
       <c r="X26" t="n">
-        <v>2262.070521416607</v>
+        <v>1588.086793046726</v>
       </c>
       <c r="Y26" t="n">
-        <v>2262.070521416607</v>
+        <v>1191.596083967327</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>132.4420069818954</v>
       </c>
       <c r="H27" t="n">
-        <v>55.20367639450403</v>
+        <v>55.20367639450405</v>
       </c>
       <c r="I27" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J27" t="n">
         <v>264.3886880629894</v>
       </c>
       <c r="K27" t="n">
-        <v>356.9138035226382</v>
+        <v>548.2875917872017</v>
       </c>
       <c r="L27" t="n">
-        <v>767.6128147752939</v>
+        <v>702.8086795819966</v>
       </c>
       <c r="M27" t="n">
-        <v>1327.475268825904</v>
+        <v>895.7094650616359</v>
       </c>
       <c r="N27" t="n">
-        <v>1534.847183298224</v>
+        <v>1103.081379533956</v>
       </c>
       <c r="O27" t="n">
-        <v>1710.109104769298</v>
+        <v>1278.343301005029</v>
       </c>
       <c r="P27" t="n">
-        <v>1838.205755055639</v>
+        <v>1838.20575505564</v>
       </c>
       <c r="Q27" t="n">
         <v>2215.830858947753</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>622.2475790011435</v>
+        <v>516.5481738262702</v>
       </c>
       <c r="C28" t="n">
-        <v>452.0424610671327</v>
+        <v>346.3430558922594</v>
       </c>
       <c r="D28" t="n">
-        <v>296.4093479696475</v>
+        <v>346.3430558922594</v>
       </c>
       <c r="E28" t="n">
-        <v>296.4093479696475</v>
+        <v>190.7842437514619</v>
       </c>
       <c r="F28" t="n">
-        <v>296.4093479696475</v>
+        <v>190.7842437514619</v>
       </c>
       <c r="G28" t="n">
-        <v>296.4093479696475</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="H28" t="n">
-        <v>149.4660577816291</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="I28" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J28" t="n">
-        <v>81.9889224668062</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1388194655161</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L28" t="n">
-        <v>577.1518390893092</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M28" t="n">
-        <v>910.932936996433</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N28" t="n">
         <v>1238.10511947644</v>
@@ -6411,25 +6411,25 @@
         <v>1768.947513905697</v>
       </c>
       <c r="S28" t="n">
-        <v>1768.947513905697</v>
+        <v>1582.861588626472</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.330274548092</v>
+        <v>1351.244349268867</v>
       </c>
       <c r="U28" t="n">
-        <v>1251.943846353493</v>
+        <v>1065.857921074268</v>
       </c>
       <c r="V28" t="n">
-        <v>985.9645011743172</v>
+        <v>799.8785758950925</v>
       </c>
       <c r="W28" t="n">
-        <v>985.9645011743172</v>
+        <v>516.5481738262702</v>
       </c>
       <c r="X28" t="n">
-        <v>985.9645011743172</v>
+        <v>516.5481738262702</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.8524399909605</v>
+        <v>516.5481738262702</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1175.323667306303</v>
+        <v>957.8876280399704</v>
       </c>
       <c r="C29" t="n">
-        <v>1175.323667306303</v>
+        <v>957.8876280399704</v>
       </c>
       <c r="D29" t="n">
-        <v>1175.323667306303</v>
+        <v>957.8876280399704</v>
       </c>
       <c r="E29" t="n">
-        <v>1175.323667306303</v>
+        <v>957.8876280399704</v>
       </c>
       <c r="F29" t="n">
-        <v>758.4292288362805</v>
+        <v>814.258122499808</v>
       </c>
       <c r="G29" t="n">
-        <v>347.4066256683341</v>
+        <v>403.2355193318616</v>
       </c>
       <c r="H29" t="n">
-        <v>45.24141042833214</v>
+        <v>101.0703040918596</v>
       </c>
       <c r="I29" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J29" t="n">
-        <v>227.5108064918035</v>
+        <v>367.919247523302</v>
       </c>
       <c r="K29" t="n">
-        <v>787.3732605424136</v>
+        <v>493.1093475760565</v>
       </c>
       <c r="L29" t="n">
-        <v>966.6687949314077</v>
+        <v>672.4048819650505</v>
       </c>
       <c r="M29" t="n">
-        <v>1186.754757828802</v>
+        <v>892.4908448624444</v>
       </c>
       <c r="N29" t="n">
-        <v>1413.400917144907</v>
+        <v>1119.13700417855</v>
       </c>
       <c r="O29" t="n">
-        <v>1618.748538647847</v>
+        <v>1324.484625681489</v>
       </c>
       <c r="P29" t="n">
-        <v>2178.610992698457</v>
+        <v>1756.187514432069</v>
       </c>
       <c r="Q29" t="n">
-        <v>2262.070521416607</v>
+        <v>2167.546314725375</v>
       </c>
       <c r="R29" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S29" t="n">
         <v>2144.325687897709</v>
@@ -6499,16 +6499,16 @@
         <v>2144.325687897709</v>
       </c>
       <c r="V29" t="n">
-        <v>1802.218878601227</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="W29" t="n">
-        <v>1431.219843569515</v>
+        <v>2144.325687897709</v>
       </c>
       <c r="X29" t="n">
-        <v>1431.219843569515</v>
+        <v>1754.873082830766</v>
       </c>
       <c r="Y29" t="n">
-        <v>1175.323667306303</v>
+        <v>1358.382373751367</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>792.9782372797897</v>
+        <v>792.9782372797899</v>
       </c>
       <c r="C30" t="n">
-        <v>642.3240068398819</v>
+        <v>642.324006839882</v>
       </c>
       <c r="D30" t="n">
-        <v>512.2350394613622</v>
+        <v>512.2350394613625</v>
       </c>
       <c r="E30" t="n">
-        <v>375.7885485722499</v>
+        <v>375.7885485722502</v>
       </c>
       <c r="F30" t="n">
-        <v>251.3567424553817</v>
+        <v>251.3567424553819</v>
       </c>
       <c r="G30" t="n">
         <v>132.4420069818954</v>
       </c>
       <c r="H30" t="n">
-        <v>55.20367639450403</v>
+        <v>55.20367639450405</v>
       </c>
       <c r="I30" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J30" t="n">
-        <v>101.3077383335983</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K30" t="n">
-        <v>193.8328537932471</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L30" t="n">
-        <v>753.6953078438572</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.557761894467</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.929676366787</v>
+        <v>1320.147703311619</v>
       </c>
       <c r="O30" t="n">
-        <v>2080.792130417397</v>
+        <v>1495.409624782692</v>
       </c>
       <c r="P30" t="n">
-        <v>2208.888780703739</v>
+        <v>1838.20575505564</v>
       </c>
       <c r="Q30" t="n">
-        <v>2262.070521416607</v>
+        <v>2215.830858947754</v>
       </c>
       <c r="R30" t="n">
-        <v>2262.070521416607</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="S30" t="n">
         <v>2148.40924868244</v>
@@ -6575,10 +6575,10 @@
         <v>1976.04092274022</v>
       </c>
       <c r="U30" t="n">
-        <v>1766.053113790878</v>
+        <v>1766.053113790879</v>
       </c>
       <c r="V30" t="n">
-        <v>1543.513112161945</v>
+        <v>1543.513112161946</v>
       </c>
       <c r="W30" t="n">
         <v>1313.395866295232</v>
@@ -6587,7 +6587,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y30" t="n">
-        <v>944.7745717207511</v>
+        <v>944.7745717207513</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>845.6797926046117</v>
+        <v>831.7775988572513</v>
       </c>
       <c r="C31" t="n">
-        <v>675.474674670601</v>
+        <v>831.7775988572513</v>
       </c>
       <c r="D31" t="n">
-        <v>519.8415615731158</v>
+        <v>776.5881501338613</v>
       </c>
       <c r="E31" t="n">
-        <v>519.8415615731158</v>
+        <v>621.0293379930638</v>
       </c>
       <c r="F31" t="n">
-        <v>362.5156267860887</v>
+        <v>463.7034032060367</v>
       </c>
       <c r="G31" t="n">
-        <v>195.2215715496995</v>
+        <v>296.4093479696475</v>
       </c>
       <c r="H31" t="n">
-        <v>149.4660577816291</v>
+        <v>149.4660577816292</v>
       </c>
       <c r="I31" t="n">
-        <v>45.24141042833214</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="J31" t="n">
-        <v>81.9889224668062</v>
+        <v>81.98892246680622</v>
       </c>
       <c r="K31" t="n">
-        <v>273.1388194655161</v>
+        <v>273.1388194655162</v>
       </c>
       <c r="L31" t="n">
-        <v>577.1518390893092</v>
+        <v>577.1518390893093</v>
       </c>
       <c r="M31" t="n">
-        <v>910.932936996433</v>
+        <v>910.9329369964331</v>
       </c>
       <c r="N31" t="n">
         <v>1238.10511947644</v>
@@ -6648,25 +6648,25 @@
         <v>1768.947513905697</v>
       </c>
       <c r="S31" t="n">
-        <v>1768.947513905697</v>
+        <v>1582.861588626472</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.330274548092</v>
+        <v>1351.244349268867</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.330274548092</v>
+        <v>1065.857921074268</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.330274548092</v>
+        <v>1065.857921074268</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.99987247927</v>
+        <v>1065.857921074268</v>
       </c>
       <c r="X31" t="n">
-        <v>1253.99987247927</v>
+        <v>831.7775988572513</v>
       </c>
       <c r="Y31" t="n">
-        <v>1030.887811295913</v>
+        <v>831.7775988572513</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1161.012753719736</v>
+        <v>1101.124135606555</v>
       </c>
       <c r="C32" t="n">
-        <v>1161.012753719736</v>
+        <v>833.2660640951199</v>
       </c>
       <c r="D32" t="n">
-        <v>1161.012753719736</v>
+        <v>447.8249353117876</v>
       </c>
       <c r="E32" t="n">
-        <v>758.4292288362806</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="F32" t="n">
-        <v>758.4292288362806</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="G32" t="n">
-        <v>347.4066256683342</v>
+        <v>45.24141042833216</v>
       </c>
       <c r="H32" t="n">
         <v>45.24141042833216</v>
@@ -6700,28 +6700,28 @@
         <v>45.24141042833216</v>
       </c>
       <c r="J32" t="n">
-        <v>334.2838889145031</v>
+        <v>367.919247523302</v>
       </c>
       <c r="K32" t="n">
-        <v>459.4739889672576</v>
+        <v>771.9784428173282</v>
       </c>
       <c r="L32" t="n">
-        <v>638.7695233562516</v>
+        <v>951.2739772063222</v>
       </c>
       <c r="M32" t="n">
-        <v>858.8554862536455</v>
+        <v>1171.359940103716</v>
       </c>
       <c r="N32" t="n">
-        <v>1085.501645569751</v>
+        <v>1398.006099419821</v>
       </c>
       <c r="O32" t="n">
-        <v>1290.849267072691</v>
+        <v>1603.353720922761</v>
       </c>
       <c r="P32" t="n">
-        <v>1850.711721123301</v>
+        <v>1756.187514432069</v>
       </c>
       <c r="Q32" t="n">
-        <v>2262.070521416608</v>
+        <v>2167.546314725375</v>
       </c>
       <c r="R32" t="n">
         <v>2262.070521416608</v>
@@ -6730,22 +6730,22 @@
         <v>2262.070521416608</v>
       </c>
       <c r="T32" t="n">
-        <v>2047.938435862106</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="U32" t="n">
-        <v>1792.356918484228</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="V32" t="n">
-        <v>1792.356918484228</v>
+        <v>2262.070521416608</v>
       </c>
       <c r="W32" t="n">
-        <v>1421.357883452516</v>
+        <v>1891.071486384895</v>
       </c>
       <c r="X32" t="n">
-        <v>1161.012753719736</v>
+        <v>1501.618881317952</v>
       </c>
       <c r="Y32" t="n">
-        <v>1161.012753719736</v>
+        <v>1501.618881317952</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>792.9782372797899</v>
+        <v>792.9782372797897</v>
       </c>
       <c r="C33" t="n">
-        <v>642.324006839882</v>
+        <v>642.3240068398819</v>
       </c>
       <c r="D33" t="n">
-        <v>512.2350394613625</v>
+        <v>512.2350394613622</v>
       </c>
       <c r="E33" t="n">
-        <v>375.7885485722502</v>
+        <v>375.7885485722499</v>
       </c>
       <c r="F33" t="n">
-        <v>251.3567424553819</v>
+        <v>251.3567424553817</v>
       </c>
       <c r="G33" t="n">
         <v>132.4420069818954</v>
@@ -6779,28 +6779,28 @@
         <v>45.24141042833216</v>
       </c>
       <c r="J33" t="n">
-        <v>69.65369308326203</v>
+        <v>264.3886880629894</v>
       </c>
       <c r="K33" t="n">
-        <v>570.6189205851372</v>
+        <v>765.3539155648646</v>
       </c>
       <c r="L33" t="n">
-        <v>725.1400083799321</v>
+        <v>919.8750033596594</v>
       </c>
       <c r="M33" t="n">
-        <v>941.9491275304904</v>
+        <v>1112.775788839299</v>
       </c>
       <c r="N33" t="n">
-        <v>1149.32104200281</v>
+        <v>1320.147703311619</v>
       </c>
       <c r="O33" t="n">
-        <v>1324.582963473884</v>
+        <v>1495.409624782692</v>
       </c>
       <c r="P33" t="n">
-        <v>1884.445417524494</v>
+        <v>1838.20575505564</v>
       </c>
       <c r="Q33" t="n">
-        <v>2262.070521416608</v>
+        <v>2215.830858947754</v>
       </c>
       <c r="R33" t="n">
         <v>2262.070521416608</v>
@@ -6812,10 +6812,10 @@
         <v>1976.04092274022</v>
       </c>
       <c r="U33" t="n">
-        <v>1766.053113790879</v>
+        <v>1766.053113790878</v>
       </c>
       <c r="V33" t="n">
-        <v>1543.513112161946</v>
+        <v>1543.513112161945</v>
       </c>
       <c r="W33" t="n">
         <v>1313.395866295232</v>
@@ -6824,7 +6824,7 @@
         <v>1124.088788645244</v>
       </c>
       <c r="Y33" t="n">
-        <v>944.7745717207513</v>
+        <v>944.7745717207511</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>372.77246314937</v>
+        <v>515.111868950225</v>
       </c>
       <c r="C34" t="n">
-        <v>202.5673452153592</v>
+        <v>515.111868950225</v>
       </c>
       <c r="D34" t="n">
-        <v>202.5673452153592</v>
+        <v>359.4787558527397</v>
       </c>
       <c r="E34" t="n">
-        <v>202.5673452153592</v>
+        <v>359.4787558527397</v>
       </c>
       <c r="F34" t="n">
-        <v>45.24141042833216</v>
+        <v>359.4787558527397</v>
       </c>
       <c r="G34" t="n">
-        <v>45.24141042833216</v>
+        <v>192.1847006163505</v>
       </c>
       <c r="H34" t="n">
         <v>45.24141042833216</v>
@@ -6882,28 +6882,28 @@
         <v>1849.683472428016</v>
       </c>
       <c r="R34" t="n">
-        <v>1768.947513905697</v>
+        <v>1849.683472428016</v>
       </c>
       <c r="S34" t="n">
-        <v>1582.861588626472</v>
+        <v>1663.597547148791</v>
       </c>
       <c r="T34" t="n">
-        <v>1351.244349268867</v>
+        <v>1663.597547148791</v>
       </c>
       <c r="U34" t="n">
-        <v>1281.152210420221</v>
+        <v>1378.211118954192</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.172865241045</v>
+        <v>1112.231773775016</v>
       </c>
       <c r="W34" t="n">
-        <v>1015.172865241045</v>
+        <v>972.3042523505986</v>
       </c>
       <c r="X34" t="n">
-        <v>781.0925430240279</v>
+        <v>738.2239301335817</v>
       </c>
       <c r="Y34" t="n">
-        <v>557.9804818406712</v>
+        <v>515.111868950225</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1841.267410203759</v>
+        <v>1185.191147114484</v>
       </c>
       <c r="C35" t="n">
-        <v>1841.267410203759</v>
+        <v>906.2603699190045</v>
       </c>
       <c r="D35" t="n">
-        <v>1455.826281420426</v>
+        <v>906.2603699190045</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.242756536971</v>
+        <v>503.676845035549</v>
       </c>
       <c r="F35" t="n">
-        <v>636.3483180669485</v>
+        <v>503.676845035549</v>
       </c>
       <c r="G35" t="n">
-        <v>225.3257148990022</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="H35" t="n">
-        <v>36.82534820407517</v>
+        <v>92.65424186760265</v>
       </c>
       <c r="I35" t="n">
         <v>36.82534820407517</v>
@@ -6940,49 +6940,49 @@
         <v>359.503185299045</v>
       </c>
       <c r="K35" t="n">
-        <v>773.5988098708681</v>
+        <v>484.6932853517995</v>
       </c>
       <c r="L35" t="n">
-        <v>952.8943442598621</v>
+        <v>663.9888197407936</v>
       </c>
       <c r="M35" t="n">
-        <v>1172.980307157256</v>
+        <v>1119.702503766224</v>
       </c>
       <c r="N35" t="n">
-        <v>1399.626466473361</v>
+        <v>1346.348663082329</v>
       </c>
       <c r="O35" t="n">
-        <v>1604.974087976301</v>
+        <v>1551.696284585269</v>
       </c>
       <c r="P35" t="n">
-        <v>1757.807881485609</v>
+        <v>1704.530078094576</v>
       </c>
       <c r="Q35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T35" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U35" t="n">
-        <v>1841.267410203759</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="V35" t="n">
-        <v>1841.267410203759</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="W35" t="n">
-        <v>1841.267410203759</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="X35" t="n">
-        <v>1841.267410203759</v>
+        <v>1585.685892825881</v>
       </c>
       <c r="Y35" t="n">
-        <v>1841.267410203759</v>
+        <v>1585.685892825881</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>508.0644508217288</v>
+        <v>660.1303689386644</v>
       </c>
       <c r="C36" t="n">
-        <v>357.410220381821</v>
+        <v>509.4761384987567</v>
       </c>
       <c r="D36" t="n">
-        <v>357.410220381821</v>
+        <v>379.387171120237</v>
       </c>
       <c r="E36" t="n">
-        <v>357.410220381821</v>
+        <v>242.9406802311247</v>
       </c>
       <c r="F36" t="n">
-        <v>232.9784142649528</v>
+        <v>242.9406802311247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.0636787914666</v>
+        <v>124.0259447576385</v>
       </c>
       <c r="H36" t="n">
-        <v>36.82534820407517</v>
+        <v>46.78761417024706</v>
       </c>
       <c r="I36" t="n">
         <v>36.82534820407517</v>
       </c>
       <c r="J36" t="n">
-        <v>139.1081351398844</v>
+        <v>255.9726258387325</v>
       </c>
       <c r="K36" t="n">
-        <v>231.6332505995332</v>
+        <v>348.4977412983812</v>
       </c>
       <c r="L36" t="n">
-        <v>386.1543383943281</v>
+        <v>503.0188290931761</v>
       </c>
       <c r="M36" t="n">
-        <v>579.0551238739674</v>
+        <v>695.9196145728155</v>
       </c>
       <c r="N36" t="n">
-        <v>786.4270383462871</v>
+        <v>903.2915290451351</v>
       </c>
       <c r="O36" t="n">
-        <v>961.6889598173609</v>
+        <v>1335.545656025303</v>
       </c>
       <c r="P36" t="n">
-        <v>1417.402643842791</v>
+        <v>1463.642306311645</v>
       </c>
       <c r="Q36" t="n">
-        <v>1795.027747734905</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R36" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S36" t="n">
-        <v>1841.267410203759</v>
+        <v>1727.606137469591</v>
       </c>
       <c r="T36" t="n">
-        <v>1691.127136282159</v>
+        <v>1555.237811527371</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.139327332817</v>
+        <v>1345.250002578029</v>
       </c>
       <c r="V36" t="n">
-        <v>1258.599325703884</v>
+        <v>1345.250002578029</v>
       </c>
       <c r="W36" t="n">
-        <v>1028.482079837171</v>
+        <v>1180.547997954107</v>
       </c>
       <c r="X36" t="n">
-        <v>839.1750021871828</v>
+        <v>991.2409203041186</v>
       </c>
       <c r="Y36" t="n">
-        <v>659.8607852626901</v>
+        <v>811.9267033796258</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.7856715878033</v>
+        <v>729.8577374976715</v>
       </c>
       <c r="C37" t="n">
-        <v>819.5805536537925</v>
+        <v>600.8780326732151</v>
       </c>
       <c r="D37" t="n">
-        <v>663.9474405563072</v>
+        <v>600.8780326732151</v>
       </c>
       <c r="E37" t="n">
-        <v>508.3886284155097</v>
+        <v>445.3192205324175</v>
       </c>
       <c r="F37" t="n">
-        <v>351.0626936284827</v>
+        <v>287.9932857453905</v>
       </c>
       <c r="G37" t="n">
-        <v>183.7686383920935</v>
+        <v>287.9932857453905</v>
       </c>
       <c r="H37" t="n">
-        <v>36.82534820407517</v>
+        <v>141.0499955573722</v>
       </c>
       <c r="I37" t="n">
         <v>36.82534820407517</v>
@@ -7104,7 +7104,7 @@
         <v>568.7357768650522</v>
       </c>
       <c r="M37" t="n">
-        <v>902.5168747721759</v>
+        <v>902.516874772176</v>
       </c>
       <c r="N37" t="n">
         <v>1229.689057252183</v>
@@ -7116,31 +7116,31 @@
         <v>1759.058113865676</v>
       </c>
       <c r="Q37" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.53145168144</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S37" t="n">
-        <v>1760.53145168144</v>
+        <v>1655.181484924534</v>
       </c>
       <c r="T37" t="n">
-        <v>1760.53145168144</v>
+        <v>1423.564245566929</v>
       </c>
       <c r="U37" t="n">
-        <v>1632.186073679478</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="V37" t="n">
-        <v>1632.186073679478</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="W37" t="n">
-        <v>1632.186073679478</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="X37" t="n">
-        <v>1398.105751462461</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="Y37" t="n">
-        <v>1174.993690279105</v>
+        <v>915.0657561889727</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>447.8479513720215</v>
+        <v>1249.478813054622</v>
       </c>
       <c r="C38" t="n">
-        <v>447.8479513720215</v>
+        <v>856.3033115575529</v>
       </c>
       <c r="D38" t="n">
-        <v>447.8479513720215</v>
+        <v>856.3033115575529</v>
       </c>
       <c r="E38" t="n">
-        <v>447.8479513720215</v>
+        <v>453.7197866740974</v>
       </c>
       <c r="F38" t="n">
-        <v>447.8479513720215</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="G38" t="n">
         <v>36.82534820407517</v>
@@ -7174,52 +7174,52 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J38" t="n">
-        <v>225.9852315517245</v>
+        <v>359.503185299045</v>
       </c>
       <c r="K38" t="n">
-        <v>351.175331604479</v>
+        <v>484.6932853517995</v>
       </c>
       <c r="L38" t="n">
-        <v>530.470865993473</v>
+        <v>663.9888197407936</v>
       </c>
       <c r="M38" t="n">
-        <v>750.5568288908669</v>
+        <v>884.0747826381875</v>
       </c>
       <c r="N38" t="n">
-        <v>977.2029882069722</v>
+        <v>1110.720941954293</v>
       </c>
       <c r="O38" t="n">
-        <v>1182.550609709912</v>
+        <v>1316.068563457233</v>
       </c>
       <c r="P38" t="n">
-        <v>1335.384403219219</v>
+        <v>1468.90235696654</v>
       </c>
       <c r="Q38" t="n">
         <v>1746.743203512526</v>
       </c>
       <c r="R38" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S38" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T38" t="n">
-        <v>1627.135324649256</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="U38" t="n">
-        <v>1371.553807271379</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="V38" t="n">
-        <v>1215.337695483133</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="W38" t="n">
-        <v>844.3386604514203</v>
+        <v>1645.969522134021</v>
       </c>
       <c r="X38" t="n">
-        <v>844.3386604514203</v>
+        <v>1645.969522134021</v>
       </c>
       <c r="Y38" t="n">
-        <v>447.8479513720215</v>
+        <v>1249.478813054622</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>560.9150876128572</v>
+        <v>531.2533674990063</v>
       </c>
       <c r="C39" t="n">
-        <v>410.2608571729493</v>
+        <v>380.5991370590986</v>
       </c>
       <c r="D39" t="n">
-        <v>280.1718897944297</v>
+        <v>250.5101696805789</v>
       </c>
       <c r="E39" t="n">
-        <v>280.1718897944297</v>
+        <v>114.0636787914666</v>
       </c>
       <c r="F39" t="n">
-        <v>155.7400836775614</v>
+        <v>114.0636787914666</v>
       </c>
       <c r="G39" t="n">
-        <v>36.82534820407517</v>
+        <v>114.0636787914666</v>
       </c>
       <c r="H39" t="n">
         <v>36.82534820407517</v>
@@ -7256,49 +7256,49 @@
         <v>255.9726258387325</v>
       </c>
       <c r="K39" t="n">
-        <v>711.6863098641627</v>
+        <v>348.4977412983812</v>
       </c>
       <c r="L39" t="n">
-        <v>866.2073976589576</v>
+        <v>503.0188290931761</v>
       </c>
       <c r="M39" t="n">
-        <v>1059.108183138597</v>
+        <v>695.9196145728155</v>
       </c>
       <c r="N39" t="n">
-        <v>1266.480097610917</v>
+        <v>903.2915290451351</v>
       </c>
       <c r="O39" t="n">
-        <v>1441.74201908199</v>
+        <v>1078.553450516209</v>
       </c>
       <c r="P39" t="n">
-        <v>1569.838669368332</v>
+        <v>1463.642306311645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R39" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S39" t="n">
-        <v>1727.606137469591</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="T39" t="n">
-        <v>1555.237811527371</v>
+        <v>1714.316052959437</v>
       </c>
       <c r="U39" t="n">
-        <v>1533.989964123946</v>
+        <v>1504.328244010095</v>
       </c>
       <c r="V39" t="n">
-        <v>1311.449962495013</v>
+        <v>1281.788242381162</v>
       </c>
       <c r="W39" t="n">
-        <v>1081.3327166283</v>
+        <v>1051.670996514449</v>
       </c>
       <c r="X39" t="n">
-        <v>892.0256389783112</v>
+        <v>862.3639188644604</v>
       </c>
       <c r="Y39" t="n">
-        <v>712.7114220538185</v>
+        <v>683.0497019399677</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>669.6393966122059</v>
+        <v>192.3841603448727</v>
       </c>
       <c r="C40" t="n">
-        <v>499.4342786781951</v>
+        <v>192.3841603448727</v>
       </c>
       <c r="D40" t="n">
-        <v>343.8011655807099</v>
+        <v>192.3841603448727</v>
       </c>
       <c r="E40" t="n">
-        <v>343.8011655807099</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="F40" t="n">
-        <v>186.4752307936828</v>
+        <v>36.82534820407517</v>
       </c>
       <c r="G40" t="n">
         <v>36.82534820407517</v>
@@ -7332,16 +7332,16 @@
         <v>36.82534820407517</v>
       </c>
       <c r="J40" t="n">
-        <v>73.57286024254927</v>
+        <v>73.57286024254887</v>
       </c>
       <c r="K40" t="n">
-        <v>264.7227572412594</v>
+        <v>264.7227572412588</v>
       </c>
       <c r="L40" t="n">
-        <v>568.7357768650523</v>
+        <v>568.7357768650519</v>
       </c>
       <c r="M40" t="n">
-        <v>902.5168747721763</v>
+        <v>902.5168747721757</v>
       </c>
       <c r="N40" t="n">
         <v>1229.689057252183</v>
@@ -7353,10 +7353,10 @@
         <v>1759.058113865676</v>
       </c>
       <c r="Q40" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="R40" t="n">
-        <v>1841.267410203759</v>
+        <v>1841.267410203758</v>
       </c>
       <c r="S40" t="n">
         <v>1655.181484924534</v>
@@ -7365,19 +7365,19 @@
         <v>1423.564245566929</v>
       </c>
       <c r="U40" t="n">
-        <v>1138.17781737233</v>
+        <v>1138.177817372329</v>
       </c>
       <c r="V40" t="n">
-        <v>1138.17781737233</v>
+        <v>872.1984721931536</v>
       </c>
       <c r="W40" t="n">
-        <v>854.8474153035072</v>
+        <v>588.8680701243313</v>
       </c>
       <c r="X40" t="n">
-        <v>854.8474153035072</v>
+        <v>354.7877479073144</v>
       </c>
       <c r="Y40" t="n">
-        <v>854.8474153035072</v>
+        <v>192.3841603448727</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>348.8277973689873</v>
       </c>
       <c r="D41" t="n">
-        <v>348.8277973689873</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="E41" t="n">
-        <v>348.8277973689873</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="F41" t="n">
         <v>25.59966785732375</v>
@@ -7411,7 +7411,7 @@
         <v>25.59966785732375</v>
       </c>
       <c r="J41" t="n">
-        <v>87.12469248054289</v>
+        <v>87.12469248054288</v>
       </c>
       <c r="K41" t="n">
         <v>212.3147925332974</v>
@@ -7453,7 +7453,7 @@
         <v>672.0559268806509</v>
       </c>
       <c r="X41" t="n">
-        <v>672.0559268806509</v>
+        <v>348.8277973689873</v>
       </c>
       <c r="Y41" t="n">
         <v>348.8277973689873</v>
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>488.2881921858334</v>
+        <v>520.0276871522549</v>
       </c>
       <c r="C42" t="n">
-        <v>488.2881921858334</v>
+        <v>369.3734567123471</v>
       </c>
       <c r="D42" t="n">
-        <v>358.1992248073137</v>
+        <v>239.2844893338274</v>
       </c>
       <c r="E42" t="n">
-        <v>221.7527339182014</v>
+        <v>102.8379984447152</v>
       </c>
       <c r="F42" t="n">
-        <v>221.7527339182014</v>
+        <v>102.8379984447152</v>
       </c>
       <c r="G42" t="n">
         <v>102.8379984447152</v>
@@ -7490,52 +7490,52 @@
         <v>25.59966785732375</v>
       </c>
       <c r="J42" t="n">
-        <v>244.746945491981</v>
+        <v>50.01195051225362</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2720609516298</v>
+        <v>142.5370659719023</v>
       </c>
       <c r="L42" t="n">
-        <v>491.7931487464247</v>
+        <v>297.0581537666973</v>
       </c>
       <c r="M42" t="n">
-        <v>684.693934226064</v>
+        <v>489.9589392463366</v>
       </c>
       <c r="N42" t="n">
-        <v>892.0658486983837</v>
+        <v>697.3308537186563</v>
       </c>
       <c r="O42" t="n">
-        <v>1067.327770169457</v>
+        <v>872.5927751897301</v>
       </c>
       <c r="P42" t="n">
-        <v>1195.424420455799</v>
+        <v>1000.689425476072</v>
       </c>
       <c r="Q42" t="n">
-        <v>1248.606161168667</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="R42" t="n">
         <v>1279.983392866188</v>
       </c>
       <c r="S42" t="n">
-        <v>1279.983392866188</v>
+        <v>1166.32212013202</v>
       </c>
       <c r="T42" t="n">
-        <v>1279.983392866188</v>
+        <v>993.9537941898002</v>
       </c>
       <c r="U42" t="n">
-        <v>1069.995583916846</v>
+        <v>993.9537941898002</v>
       </c>
       <c r="V42" t="n">
-        <v>1069.995583916846</v>
+        <v>993.9537941898002</v>
       </c>
       <c r="W42" t="n">
-        <v>839.8783380501327</v>
+        <v>763.8365483230871</v>
       </c>
       <c r="X42" t="n">
-        <v>650.5712604001444</v>
+        <v>671.8240215932162</v>
       </c>
       <c r="Y42" t="n">
-        <v>640.0845266267947</v>
+        <v>671.8240215932162</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.4905833579596</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="C43" t="n">
-        <v>745.2854654239488</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="D43" t="n">
-        <v>589.6523523264636</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="E43" t="n">
-        <v>434.0935401856661</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="F43" t="n">
-        <v>276.767605398639</v>
+        <v>339.8370132817313</v>
       </c>
       <c r="G43" t="n">
-        <v>276.767605398639</v>
+        <v>172.5429580453421</v>
       </c>
       <c r="H43" t="n">
-        <v>129.8243152106207</v>
+        <v>25.59966785732375</v>
       </c>
       <c r="I43" t="n">
         <v>25.59966785732375</v>
       </c>
       <c r="J43" t="n">
-        <v>37.6406419648867</v>
+        <v>62.34717989579781</v>
       </c>
       <c r="K43" t="n">
-        <v>63.93546622091527</v>
+        <v>88.64200415182638</v>
       </c>
       <c r="L43" t="n">
-        <v>117.0225567839317</v>
+        <v>141.7290947148428</v>
       </c>
       <c r="M43" t="n">
-        <v>433.8184465183131</v>
+        <v>458.5249844492242</v>
       </c>
       <c r="N43" t="n">
-        <v>750.6143362526946</v>
+        <v>775.3208741836056</v>
       </c>
       <c r="O43" t="n">
-        <v>1046.310291037639</v>
+        <v>1071.01682896855</v>
       </c>
       <c r="P43" t="n">
-        <v>1279.983392866188</v>
+        <v>1197.774096528105</v>
       </c>
       <c r="Q43" t="n">
         <v>1279.983392866188</v>
@@ -7602,19 +7602,19 @@
         <v>1279.983392866188</v>
       </c>
       <c r="U43" t="n">
-        <v>1279.983392866188</v>
+        <v>994.5969646715885</v>
       </c>
       <c r="V43" t="n">
-        <v>1198.820985426782</v>
+        <v>994.5969646715885</v>
       </c>
       <c r="W43" t="n">
-        <v>915.4905833579596</v>
+        <v>711.266562602766</v>
       </c>
       <c r="X43" t="n">
-        <v>915.4905833579596</v>
+        <v>562.949074465088</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.4905833579596</v>
+        <v>339.8370132817313</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.06869739158287</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="C44" t="n">
-        <v>46.06869739158287</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="D44" t="n">
-        <v>25.59966785732375</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="E44" t="n">
-        <v>25.59966785732375</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="F44" t="n">
-        <v>25.59966785732375</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="G44" t="n">
-        <v>25.59966785732375</v>
+        <v>327.7648830973258</v>
       </c>
       <c r="H44" t="n">
         <v>25.59966785732375</v>
@@ -7675,25 +7675,25 @@
         <v>1279.983392866188</v>
       </c>
       <c r="S44" t="n">
-        <v>1162.23855934729</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="T44" t="n">
-        <v>948.1064737927874</v>
+        <v>1065.851307311685</v>
       </c>
       <c r="U44" t="n">
-        <v>692.52495641491</v>
+        <v>810.2697899338079</v>
       </c>
       <c r="V44" t="n">
-        <v>369.2968269032464</v>
+        <v>810.2697899338079</v>
       </c>
       <c r="W44" t="n">
-        <v>46.06869739158287</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="X44" t="n">
-        <v>46.06869739158287</v>
+        <v>487.0416604221444</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.06869739158287</v>
+        <v>487.0416604221444</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.59966785732375</v>
+        <v>520.0276871522549</v>
       </c>
       <c r="C45" t="n">
-        <v>25.59966785732375</v>
+        <v>369.3734567123471</v>
       </c>
       <c r="D45" t="n">
-        <v>25.59966785732375</v>
+        <v>239.2844893338274</v>
       </c>
       <c r="E45" t="n">
-        <v>25.59966785732375</v>
+        <v>102.8379984447152</v>
       </c>
       <c r="F45" t="n">
-        <v>25.59966785732375</v>
+        <v>102.8379984447152</v>
       </c>
       <c r="G45" t="n">
-        <v>25.59966785732375</v>
+        <v>102.8379984447152</v>
       </c>
       <c r="H45" t="n">
         <v>25.59966785732375</v>
@@ -7727,28 +7727,28 @@
         <v>25.59966785732375</v>
       </c>
       <c r="J45" t="n">
-        <v>244.746945491981</v>
+        <v>50.01195051225362</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2720609516298</v>
+        <v>366.8078402466351</v>
       </c>
       <c r="L45" t="n">
-        <v>491.7931487464247</v>
+        <v>523.1703804439449</v>
       </c>
       <c r="M45" t="n">
-        <v>684.693934226064</v>
+        <v>716.0711659235842</v>
       </c>
       <c r="N45" t="n">
-        <v>892.0658486983837</v>
+        <v>923.4430803959038</v>
       </c>
       <c r="O45" t="n">
-        <v>1067.327770169457</v>
+        <v>1098.705001866978</v>
       </c>
       <c r="P45" t="n">
-        <v>1195.424420455799</v>
+        <v>1226.80165215332</v>
       </c>
       <c r="Q45" t="n">
-        <v>1248.606161168667</v>
+        <v>1279.983392866188</v>
       </c>
       <c r="R45" t="n">
         <v>1279.983392866188</v>
@@ -7757,22 +7757,22 @@
         <v>1279.983392866188</v>
       </c>
       <c r="T45" t="n">
-        <v>1208.662353317754</v>
+        <v>1107.615066923968</v>
       </c>
       <c r="U45" t="n">
-        <v>998.6745443684123</v>
+        <v>1073.678240146642</v>
       </c>
       <c r="V45" t="n">
-        <v>776.1345427394793</v>
+        <v>851.1382385177089</v>
       </c>
       <c r="W45" t="n">
-        <v>546.0172968727662</v>
+        <v>851.1382385177089</v>
       </c>
       <c r="X45" t="n">
-        <v>356.7102192227779</v>
+        <v>851.1382385177089</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.3960022982851</v>
+        <v>671.8240215932162</v>
       </c>
     </row>
     <row r="46">
@@ -7833,25 +7833,25 @@
         <v>1279.983392866188</v>
       </c>
       <c r="S46" t="n">
-        <v>1279.983392866188</v>
+        <v>1093.897467586963</v>
       </c>
       <c r="T46" t="n">
-        <v>1279.983392866188</v>
+        <v>862.2802282293578</v>
       </c>
       <c r="U46" t="n">
-        <v>1032.101798505696</v>
+        <v>576.8938000347587</v>
       </c>
       <c r="V46" t="n">
-        <v>766.1224533265197</v>
+        <v>576.8938000347587</v>
       </c>
       <c r="W46" t="n">
-        <v>482.7920512576973</v>
+        <v>576.8938000347587</v>
       </c>
       <c r="X46" t="n">
-        <v>248.7117290406804</v>
+        <v>342.8134778177417</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.59966785732375</v>
+        <v>119.7014166343851</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>181.6894587963571</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>181.6894587963577</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8850,19 +8850,19 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>236.36219616656</v>
+        <v>261.3182950866723</v>
       </c>
       <c r="N13" t="n">
-        <v>257.5545344939003</v>
+        <v>66.96262520208231</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
@@ -9011,13 +9011,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>163.9139413531177</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>17.77551744323938</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>228.3961885628765</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.35383743468672</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>253.4605344048249</v>
+        <v>237.3834663361162</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>261.3182950866722</v>
       </c>
       <c r="N16" t="n">
-        <v>257.5545344939003</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>254.3449995307766</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.91568258899869</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>128.9240997216464</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>231.3813380902273</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>60.44242405024625</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
-        <v>7.038618344042021</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>259.5880863728224</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>173.0054928630964</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>283.2846086407641</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.47253646344849</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
         <v>166.520275497658</v>
@@ -9342,7 +9342,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>101.9350150692921</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>276.4042296508921</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>279.2102521580165</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>196.3447654826625</v>
       </c>
       <c r="R20" t="n">
-        <v>7.038618344042021</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>212.8813566063036</v>
+        <v>366.8571399654358</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>173.7447855087919</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9579,7 +9579,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692926</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>281.6859547891625</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>358.0957904521927</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>254.8015497664219</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9719,25 +9719,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>370.6683520918897</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>356.0510500790813</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>216.8681616026325</v>
       </c>
       <c r="Q24" t="n">
-        <v>230.4350980392077</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>384.4110299612285</v>
+        <v>384.4110299612287</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.6602361314386</v>
+        <v>323.9653069151962</v>
       </c>
       <c r="O26" t="n">
-        <v>358.0957904521924</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>193.3068568328924</v>
       </c>
       <c r="L27" t="n">
-        <v>258.7655792503645</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>370.6683520918897</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>436.1270745093622</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>121.9640115558103</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>439.0629838362179</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>411.140061152831</v>
+        <v>281.6859547891634</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>7.038618344042021</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>31.97378308114781</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>409.4357234907226</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>370.6683520918897</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>388.4853864439762</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>216.8681616026325</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>24.30707513914119</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>229.8156099625776</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>281.6859547891633</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>411.1400611528313</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>7.038618344042021</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>24.14983199082724</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>436.1270745093622</v>
+        <v>216.8681616026325</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>24.30707513914119</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>291.8237621404733</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>238.0077991192286</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>53.81596302124447</v>
       </c>
       <c r="R35" t="n">
         <v>7.038618344042021</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>78.65707503119131</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>259.5880863728224</v>
       </c>
       <c r="P36" t="n">
-        <v>330.9262967061499</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>71.01380490566048</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
-        <v>278.4750710187351</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N37" t="n">
         <v>268.0356382773604</v>
@@ -10761,7 +10761,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>210.610238769904</v>
       </c>
       <c r="Q37" t="n">
         <v>101.9350150692923</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>128.9240997216466</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>196.3447654826625</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10904,7 +10904,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>366.8571399654359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>259.5880863728225</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.4515152753115</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>24.30707513914119</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>52.47253646344804</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>228.3961885628765</v>
       </c>
       <c r="R42" t="n">
-        <v>56.00124857097988</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.51643754333617</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>102.6144465790015</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.89532179850187</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>226.5361356310431</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.860052931833224</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.00124857097988</v>
+        <v>24.30707513914119</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76.493950037736</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>69.24789826555178</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>92.72964586877498</v>
       </c>
       <c r="G11" t="n">
-        <v>406.9123771362669</v>
+        <v>229.9278779252851</v>
       </c>
       <c r="H11" t="n">
         <v>299.1435630876019</v>
       </c>
       <c r="I11" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.9907646989572</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>18.68989298696977</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>103.7057359071392</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.52995377205798</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>82.6661460046212</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H12" t="n">
         <v>76.46594728151749</v>
       </c>
       <c r="I12" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>17.16540940853358</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.61150895074948</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23427,7 +23427,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>165.6211146840253</v>
@@ -23466,13 +23466,13 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.2250660264325</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5325639126531</v>
+        <v>45.54991188827137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.2254590153664</v>
+        <v>76.493950037736</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>223.9587885566735</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.07322823075681</v>
+        <v>100.0368135298486</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H15" t="n">
         <v>76.46594728151749</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.862643306510172</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T15" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8879308598484</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23661,16 +23661,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>44.70210840419075</v>
+        <v>14.97997631273208</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>165.6211146840253</v>
       </c>
       <c r="H16" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>103.182400879764</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S16" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23743,13 +23743,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>406.9123771362669</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>252.0649626607675</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>193.2824150001034</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23816,10 +23816,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>51.65902738592557</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.79743445672653</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.00287999919186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5325639126531</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>175.2012459023495</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>189.8449074822083</v>
+        <v>320.7988678135797</v>
       </c>
       <c r="G20" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>299.1435630876019</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>55.06131165641825</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H21" t="n">
-        <v>40.34188563590916</v>
+        <v>76.46594728151749</v>
       </c>
       <c r="I21" t="n">
         <v>9.862643306510172</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>21.01943498909648</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H22" t="n">
         <v>145.4738572861381</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.301066964029</v>
+        <v>134.1620196832319</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>289.7390808295011</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H23" t="n">
         <v>299.1435630876019</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.86730780115131</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>50.83315497228782</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.6211146840253</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S25" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>230.3539070591435</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>52.16565746278189</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.9123771362669</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>83.08618916103364</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I26" t="n">
         <v>55.2706047268922</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>116.5673851837092</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.9907646989572</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0257022040986</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.15712612446947</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6211146840253</v>
+        <v>21.53370969412688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.4738572861381</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24691,7 +24691,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>270.5322836005612</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>253.0257022040986</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>139.1885874880252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>99.4392277303543</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>100.1758986557485</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>124.0642556857779</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I32" t="n">
         <v>55.2706047268922</v>
@@ -24970,10 +24970,10 @@
         <v>116.5673851837092</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>127.8164005808221</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4738572861381</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>103.182400879764</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.301066964029</v>
       </c>
       <c r="U34" t="n">
-        <v>213.1413464524929</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>141.9688518379611</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>113.102277058574</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>112.5282000596242</v>
+        <v>299.1435630876019</v>
       </c>
       <c r="I35" t="n">
-        <v>55.2706047268922</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>211.9907646989572</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0257022040986</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25238,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.862643306510172</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>22.00577150041426</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>64.76108883036301</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>40.81315897845889</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>103.182400879764</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>79.92859893709533</v>
       </c>
       <c r="S37" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>155.4706396907108</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25377,7 +25377,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>406.9123771362669</v>
       </c>
       <c r="H38" t="n">
         <v>299.1435630876019</v>
@@ -25444,16 +25444,16 @@
         <v>116.5673851837092</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.9907646989572</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0257022040986</v>
       </c>
       <c r="V38" t="n">
-        <v>184.0317905331532</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>173.9441354923556</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25478,16 +25478,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H39" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>9.862643306510172</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>112.5246600068256</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>44.96279901091927</v>
       </c>
       <c r="U39" t="n">
-        <v>186.8525619304571</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>17.4677309203137</v>
+        <v>165.6211146840253</v>
       </c>
       <c r="H40" t="n">
         <v>145.4738572861381</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>60.10138888470578</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>61.59086927895203</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>92.72964586877509</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>406.9123771362669</v>
@@ -25693,10 +25693,10 @@
         <v>47.29319646484851</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>65.56223079972682</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.52995377205798</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.7255881187514</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>112.5246600068256</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.6446426827978</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.8879308598484</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>96.32160541091633</v>
       </c>
       <c r="Y42" t="n">
-        <v>167.1392083196317</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25788,25 +25788,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6211146840253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>103.182400879764</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>229.301066964029</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5325639126531</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>182.9687683623725</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>84.90520573854542</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>361.3223782565824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25879,10 +25879,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>406.9123771362669</v>
+        <v>249.2283675846964</v>
       </c>
       <c r="H44" t="n">
-        <v>299.1435630876019</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>55.2706047268922</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>116.5673851837092</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>18.68989298696988</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>47.29319646484851</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -25961,7 +25961,7 @@
         <v>117.7255881187514</v>
       </c>
       <c r="H45" t="n">
-        <v>76.46594728151749</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>9.862643306510172</v>
@@ -25997,19 +25997,19 @@
         <v>112.5246600068256</v>
       </c>
       <c r="T45" t="n">
-        <v>100.0368135298485</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.2904723502959</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>90.19520721509755</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26073,19 +26073,19 @@
         <v>79.92859893709533</v>
       </c>
       <c r="S46" t="n">
-        <v>184.2250660264325</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>229.301066964029</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>37.12978549576601</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352837.4895810158</v>
+        <v>352837.489581016</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352837.489581016</v>
+        <v>352837.4895810158</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462843.5286044791</v>
+        <v>462843.528604479</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>462843.5286044791</v>
+        <v>462843.528604479</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>531759.481992538</v>
+        <v>531759.4819925381</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>531759.4819925379</v>
+        <v>531759.481992538</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>531759.4819925381</v>
+        <v>531759.481992538</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>462843.528604479</v>
+        <v>462843.5286044791</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352837.4895810159</v>
+        <v>352837.489581016</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>575677.5082070945</v>
       </c>
       <c r="C2" t="n">
-        <v>575677.5082070945</v>
+        <v>575677.5082070944</v>
       </c>
       <c r="D2" t="n">
-        <v>575677.5082070944</v>
+        <v>575677.5082070947</v>
       </c>
       <c r="E2" t="n">
-        <v>284002.1618270379</v>
+        <v>284002.161827038</v>
       </c>
       <c r="F2" t="n">
         <v>284002.161827038</v>
@@ -26331,28 +26331,28 @@
         <v>347606.5074499606</v>
       </c>
       <c r="H2" t="n">
-        <v>347606.5074499604</v>
+        <v>347606.5074499603</v>
       </c>
       <c r="I2" t="n">
         <v>387452.9936714341</v>
       </c>
       <c r="J2" t="n">
-        <v>387452.9936714343</v>
+        <v>387452.9936714342</v>
       </c>
       <c r="K2" t="n">
         <v>387452.9936714341</v>
       </c>
       <c r="L2" t="n">
-        <v>387452.9936714341</v>
+        <v>387452.9936714342</v>
       </c>
       <c r="M2" t="n">
-        <v>347606.5074499606</v>
+        <v>347606.5074499605</v>
       </c>
       <c r="N2" t="n">
-        <v>347606.5074499605</v>
+        <v>347606.5074499604</v>
       </c>
       <c r="O2" t="n">
-        <v>284002.1618270382</v>
+        <v>284002.161827038</v>
       </c>
       <c r="P2" t="n">
         <v>284002.1618270379</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38459.88247299207</v>
+        <v>38459.88247299202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27975.09603420794</v>
+        <v>27975.09603420805</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>53527.79072728462</v>
+        <v>53527.79072728439</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>388814.6843578059</v>
       </c>
       <c r="E4" t="n">
-        <v>15862.4072960313</v>
+        <v>15862.40729603132</v>
       </c>
       <c r="F4" t="n">
         <v>15862.4072960313</v>
       </c>
       <c r="G4" t="n">
-        <v>50459.96546379023</v>
+        <v>50459.96546379022</v>
       </c>
       <c r="H4" t="n">
-        <v>50459.96546379024</v>
+        <v>50459.96546379021</v>
       </c>
       <c r="I4" t="n">
-        <v>72134.44558502597</v>
+        <v>72134.44558502601</v>
       </c>
       <c r="J4" t="n">
-        <v>72134.44558502595</v>
+        <v>72134.445585026</v>
       </c>
       <c r="K4" t="n">
-        <v>72134.44558502597</v>
+        <v>72134.44558502601</v>
       </c>
       <c r="L4" t="n">
-        <v>72134.445585026</v>
+        <v>72134.44558502601</v>
       </c>
       <c r="M4" t="n">
-        <v>50459.96546379023</v>
+        <v>50459.96546379021</v>
       </c>
       <c r="N4" t="n">
-        <v>50459.96546379023</v>
+        <v>50459.96546379022</v>
       </c>
       <c r="O4" t="n">
         <v>15862.40729603131</v>
       </c>
       <c r="P4" t="n">
-        <v>15862.40729603131</v>
+        <v>15862.4072960313</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>30945.20358402901</v>
+        <v>30945.20358402902</v>
       </c>
       <c r="F5" t="n">
         <v>30945.20358402901</v>
       </c>
       <c r="G5" t="n">
-        <v>39476.72064756009</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="H5" t="n">
-        <v>39476.72064756009</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="I5" t="n">
-        <v>45872.92793799538</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="J5" t="n">
-        <v>45872.92793799538</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="K5" t="n">
-        <v>45872.92793799538</v>
+        <v>45872.9279379954</v>
       </c>
       <c r="L5" t="n">
         <v>45872.9279379954</v>
       </c>
       <c r="M5" t="n">
-        <v>39476.72064756009</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="N5" t="n">
-        <v>39476.72064756009</v>
+        <v>39476.72064756008</v>
       </c>
       <c r="O5" t="n">
         <v>30945.20358402901</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153235.2238492886</v>
+        <v>153230.8942815022</v>
       </c>
       <c r="C6" t="n">
-        <v>153235.2238492886</v>
+        <v>153230.8942815021</v>
       </c>
       <c r="D6" t="n">
-        <v>153235.2238492885</v>
+        <v>153230.8942815024</v>
       </c>
       <c r="E6" t="n">
-        <v>-281774.0973475463</v>
+        <v>-282689.9123727703</v>
       </c>
       <c r="F6" t="n">
-        <v>237194.5509469777</v>
+        <v>236278.7359217536</v>
       </c>
       <c r="G6" t="n">
-        <v>219209.9388656182</v>
+        <v>218492.8874204659</v>
       </c>
       <c r="H6" t="n">
-        <v>257669.8213386101</v>
+        <v>256952.7698934576</v>
       </c>
       <c r="I6" t="n">
-        <v>241470.5241142048</v>
+        <v>240877.9929384943</v>
       </c>
       <c r="J6" t="n">
-        <v>269445.620148413</v>
+        <v>268853.0889727024</v>
       </c>
       <c r="K6" t="n">
-        <v>269445.6201484127</v>
+        <v>268853.0889727024</v>
       </c>
       <c r="L6" t="n">
-        <v>269445.6201484127</v>
+        <v>268853.0889727024</v>
       </c>
       <c r="M6" t="n">
-        <v>204142.0306113256</v>
+        <v>203424.9791661734</v>
       </c>
       <c r="N6" t="n">
-        <v>257669.8213386101</v>
+        <v>256952.7698934576</v>
       </c>
       <c r="O6" t="n">
-        <v>237194.5509469778</v>
+        <v>236278.7359217536</v>
       </c>
       <c r="P6" t="n">
-        <v>237194.5509469776</v>
+        <v>236278.7359217535</v>
       </c>
     </row>
   </sheetData>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>319.9958482165469</v>
+        <v>319.995848216547</v>
       </c>
       <c r="F4" t="n">
         <v>319.9958482165469</v>
       </c>
       <c r="G4" t="n">
-        <v>460.3168525509397</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="H4" t="n">
-        <v>460.3168525509397</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="I4" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="J4" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="K4" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="L4" t="n">
         <v>565.5176303541519</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>319.9958482165469</v>
+        <v>319.995848216547</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>140.3210043343929</v>
+        <v>140.3210043343927</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.200777803212</v>
+        <v>105.2007778032124</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>214.7950704133345</v>
+        <v>214.7950704133336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>319.9958482165469</v>
+        <v>319.995848216547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>140.3210043343929</v>
+        <v>140.3210043343927</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>24.65887136861603</v>
       </c>
       <c r="K12" t="n">
-        <v>275.1491713818609</v>
+        <v>93.45971258550377</v>
       </c>
       <c r="L12" t="n">
         <v>156.0819068634292</v>
@@ -35509,7 +35509,7 @@
         <v>129.3905558447897</v>
       </c>
       <c r="Q12" t="n">
-        <v>53.71893001299806</v>
+        <v>235.4083888093558</v>
       </c>
       <c r="R12" t="n">
         <v>46.70672976651929</v>
@@ -35570,19 +35570,19 @@
         <v>37.11869902876168</v>
       </c>
       <c r="K13" t="n">
-        <v>26.560428541443</v>
+        <v>193.080704039101</v>
       </c>
       <c r="L13" t="n">
-        <v>53.62332380102669</v>
+        <v>307.0838582058516</v>
       </c>
       <c r="M13" t="n">
-        <v>295.0397492964346</v>
+        <v>319.995848216547</v>
       </c>
       <c r="N13" t="n">
-        <v>319.9958482165469</v>
+        <v>129.4039389247289</v>
       </c>
       <c r="O13" t="n">
-        <v>298.6827826110555</v>
+        <v>44.33778308027884</v>
       </c>
       <c r="P13" t="n">
         <v>236.0334361904526</v>
@@ -35664,7 +35664,7 @@
         <v>207.4218399019593</v>
       </c>
       <c r="P14" t="n">
-        <v>154.3775692013205</v>
+        <v>154.3775692013207</v>
       </c>
       <c r="Q14" t="n">
         <v>84.30255426075757</v>
@@ -35731,13 +35731,13 @@
         <v>93.45971258550377</v>
       </c>
       <c r="L15" t="n">
-        <v>319.9958482165469</v>
+        <v>156.0819068634292</v>
       </c>
       <c r="M15" t="n">
         <v>194.849278262262</v>
       </c>
       <c r="N15" t="n">
-        <v>227.2420977183098</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O15" t="n">
         <v>177.0322439101756</v>
@@ -35746,10 +35746,10 @@
         <v>129.3905558447897</v>
       </c>
       <c r="Q15" t="n">
-        <v>53.71893001299806</v>
+        <v>282.1151185758745</v>
       </c>
       <c r="R15" t="n">
-        <v>46.70672976651929</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>37.11869902876168</v>
       </c>
       <c r="K16" t="n">
-        <v>26.560428541443</v>
+        <v>193.080704039101</v>
       </c>
       <c r="L16" t="n">
-        <v>307.0838582058516</v>
+        <v>291.0067901371428</v>
       </c>
       <c r="M16" t="n">
-        <v>58.67755312987471</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="N16" t="n">
-        <v>319.9958482165469</v>
+        <v>62.44131372264664</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6827826110555</v>
+        <v>44.33778308027884</v>
       </c>
       <c r="P16" t="n">
         <v>236.0334361904526</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.02036079049682</v>
+        <v>83.03969327079041</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>325.9372091868382</v>
+        <v>191.0705892400496</v>
       </c>
       <c r="K17" t="n">
         <v>126.4546465179338</v>
@@ -35895,19 +35895,19 @@
         <v>222.309053431711</v>
       </c>
       <c r="N17" t="n">
-        <v>460.3168525509397</v>
+        <v>228.9355144607124</v>
       </c>
       <c r="O17" t="n">
-        <v>267.8642639522055</v>
+        <v>207.4218399019593</v>
       </c>
       <c r="P17" t="n">
         <v>154.3775692013207</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.30255426075757</v>
+        <v>415.5139396902089</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>95.47899665781058</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K18" t="n">
         <v>93.45971258550377</v>
       </c>
       <c r="L18" t="n">
-        <v>156.0819068634292</v>
+        <v>415.6699932362516</v>
       </c>
       <c r="M18" t="n">
         <v>194.849278262262</v>
       </c>
       <c r="N18" t="n">
-        <v>382.4720731381668</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O18" t="n">
-        <v>460.3168525509397</v>
+        <v>177.0322439101756</v>
       </c>
       <c r="P18" t="n">
         <v>129.3905558447897</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.11869902876177</v>
+        <v>37.11869902876168</v>
       </c>
       <c r="K19" t="n">
         <v>193.080704039101</v>
@@ -36062,7 +36062,7 @@
         <v>236.0334361904526</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.03969327079041</v>
+        <v>83.03969327079027</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>62.14648951840317</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K20" t="n">
-        <v>402.8588761688259</v>
+        <v>126.4546465179338</v>
       </c>
       <c r="L20" t="n">
-        <v>460.3168525509397</v>
+        <v>181.1066003929232</v>
       </c>
       <c r="M20" t="n">
         <v>222.309053431711</v>
@@ -36141,10 +36141,10 @@
         <v>154.3775692013207</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.30255426075757</v>
+        <v>280.6473197434201</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>95.47899665781058</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>221.3608864996538</v>
       </c>
       <c r="K21" t="n">
-        <v>306.3410691918074</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="L21" t="n">
         <v>156.0819068634292</v>
       </c>
       <c r="M21" t="n">
-        <v>194.849278262262</v>
+        <v>368.5940637710539</v>
       </c>
       <c r="N21" t="n">
         <v>209.4665802750704</v>
@@ -36220,7 +36220,7 @@
         <v>129.3905558447897</v>
       </c>
       <c r="Q21" t="n">
-        <v>381.4394988809227</v>
+        <v>53.71893001299806</v>
       </c>
       <c r="R21" t="n">
         <v>46.70672976651929</v>
@@ -36299,7 +36299,7 @@
         <v>236.0334361904526</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.03969327079074</v>
+        <v>83.03969327079041</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>325.9372091868382</v>
       </c>
       <c r="K23" t="n">
-        <v>408.1406013070963</v>
+        <v>126.4546465179338</v>
       </c>
       <c r="L23" t="n">
         <v>181.1066003929232</v>
@@ -36372,13 +36372,13 @@
         <v>228.9355144607124</v>
       </c>
       <c r="O23" t="n">
-        <v>207.4218399019593</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="P23" t="n">
         <v>154.3775692013207</v>
       </c>
       <c r="Q23" t="n">
-        <v>415.5139396902089</v>
+        <v>339.1041040271795</v>
       </c>
       <c r="R23" t="n">
         <v>95.47899665781058</v>
@@ -36439,25 +36439,25 @@
         <v>221.3608864996538</v>
       </c>
       <c r="K24" t="n">
-        <v>93.45971258550377</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L24" t="n">
         <v>156.0819068634292</v>
       </c>
       <c r="M24" t="n">
-        <v>565.5176303541517</v>
+        <v>194.849278262262</v>
       </c>
       <c r="N24" t="n">
-        <v>565.5176303541517</v>
+        <v>209.4665802750704</v>
       </c>
       <c r="O24" t="n">
         <v>177.0322439101756</v>
       </c>
       <c r="P24" t="n">
-        <v>129.3905558447897</v>
+        <v>346.2587174474222</v>
       </c>
       <c r="Q24" t="n">
-        <v>284.1540280522057</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R24" t="n">
         <v>46.70672976651929</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>62.14648951840317</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K26" t="n">
         <v>126.4546465179338</v>
       </c>
       <c r="L26" t="n">
-        <v>565.5176303541517</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="M26" t="n">
         <v>222.309053431711</v>
       </c>
       <c r="N26" t="n">
-        <v>458.595750592151</v>
+        <v>552.9008213759085</v>
       </c>
       <c r="O26" t="n">
-        <v>565.5176303541517</v>
+        <v>207.4218399019593</v>
       </c>
       <c r="P26" t="n">
         <v>154.3775692013207</v>
@@ -36676,13 +36676,13 @@
         <v>221.3608864996538</v>
       </c>
       <c r="K27" t="n">
-        <v>93.45971258550377</v>
+        <v>286.7665694183962</v>
       </c>
       <c r="L27" t="n">
-        <v>414.8474861137937</v>
+        <v>156.0819068634292</v>
       </c>
       <c r="M27" t="n">
-        <v>565.5176303541517</v>
+        <v>194.849278262262</v>
       </c>
       <c r="N27" t="n">
         <v>209.4665802750704</v>
@@ -36691,7 +36691,7 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P27" t="n">
-        <v>129.3905558447897</v>
+        <v>565.5176303541519</v>
       </c>
       <c r="Q27" t="n">
         <v>381.4394988809227</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>184.1105010742135</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K29" t="n">
-        <v>565.5176303541517</v>
+        <v>126.4546465179338</v>
       </c>
       <c r="L29" t="n">
         <v>181.1066003929232</v>
@@ -36849,13 +36849,13 @@
         <v>207.4218399019593</v>
       </c>
       <c r="P29" t="n">
-        <v>565.5176303541517</v>
+        <v>436.063523990484</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.30255426075757</v>
+        <v>415.5139396902089</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>95.47899665781058</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>56.63265444976384</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K30" t="n">
-        <v>93.45971258550377</v>
+        <v>506.0254823251264</v>
       </c>
       <c r="L30" t="n">
-        <v>565.5176303541517</v>
+        <v>156.0819068634292</v>
       </c>
       <c r="M30" t="n">
-        <v>565.5176303541517</v>
+        <v>194.849278262262</v>
       </c>
       <c r="N30" t="n">
         <v>209.4665802750704</v>
       </c>
       <c r="O30" t="n">
-        <v>565.5176303541517</v>
+        <v>177.0322439101756</v>
       </c>
       <c r="P30" t="n">
-        <v>129.3905558447897</v>
+        <v>346.2587174474222</v>
       </c>
       <c r="Q30" t="n">
-        <v>53.71893001299806</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>46.70672976651929</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>291.9620994809807</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K32" t="n">
-        <v>126.4546465179338</v>
+        <v>408.1406013070971</v>
       </c>
       <c r="L32" t="n">
         <v>181.1066003929232</v>
@@ -37086,13 +37086,13 @@
         <v>207.4218399019593</v>
       </c>
       <c r="P32" t="n">
-        <v>565.5176303541519</v>
+        <v>154.3775692013207</v>
       </c>
       <c r="Q32" t="n">
         <v>415.5139396902089</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>95.47899665781058</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.65887136861603</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K33" t="n">
         <v>506.0254823251264</v>
@@ -37156,7 +37156,7 @@
         <v>156.0819068634292</v>
       </c>
       <c r="M33" t="n">
-        <v>218.9991102530892</v>
+        <v>194.849278262262</v>
       </c>
       <c r="N33" t="n">
         <v>209.4665802750704</v>
@@ -37165,13 +37165,13 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P33" t="n">
-        <v>565.5176303541519</v>
+        <v>346.2587174474222</v>
       </c>
       <c r="Q33" t="n">
         <v>381.4394988809227</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>46.70672976651929</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>325.9372091868382</v>
       </c>
       <c r="K35" t="n">
-        <v>418.2784086584072</v>
+        <v>126.4546465179338</v>
       </c>
       <c r="L35" t="n">
         <v>181.1066003929232</v>
       </c>
       <c r="M35" t="n">
-        <v>222.309053431711</v>
+        <v>460.3168525509396</v>
       </c>
       <c r="N35" t="n">
         <v>228.9355144607124</v>
@@ -37326,7 +37326,7 @@
         <v>154.3775692013207</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.30255426075757</v>
+        <v>138.118517282002</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>103.3159463998073</v>
+        <v>221.3608864996538</v>
       </c>
       <c r="K36" t="n">
         <v>93.45971258550377</v>
@@ -37399,16 +37399,16 @@
         <v>209.4665802750704</v>
       </c>
       <c r="O36" t="n">
-        <v>177.0322439101756</v>
+        <v>436.6203302829979</v>
       </c>
       <c r="P36" t="n">
-        <v>460.3168525509396</v>
+        <v>129.3905558447897</v>
       </c>
       <c r="Q36" t="n">
         <v>381.4394988809227</v>
       </c>
       <c r="R36" t="n">
-        <v>46.70672976651929</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>307.0838582058516</v>
       </c>
       <c r="M37" t="n">
-        <v>337.1526241486098</v>
+        <v>337.1526241486099</v>
       </c>
       <c r="N37" t="n">
         <v>330.476952000007</v>
@@ -37481,7 +37481,7 @@
         <v>298.6827826110555</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0334361904526</v>
+        <v>236.0334361904525</v>
       </c>
       <c r="Q37" t="n">
         <v>83.03969327079041</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.0705892400498</v>
+        <v>325.9372091868382</v>
       </c>
       <c r="K38" t="n">
         <v>126.4546465179338</v>
@@ -37563,7 +37563,7 @@
         <v>154.3775692013207</v>
       </c>
       <c r="Q38" t="n">
-        <v>415.5139396902089</v>
+        <v>280.6473197434201</v>
       </c>
       <c r="R38" t="n">
         <v>95.47899665781058</v>
@@ -37624,7 +37624,7 @@
         <v>221.3608864996538</v>
       </c>
       <c r="K39" t="n">
-        <v>460.3168525509396</v>
+        <v>93.45971258550377</v>
       </c>
       <c r="L39" t="n">
         <v>156.0819068634292</v>
@@ -37639,10 +37639,10 @@
         <v>177.0322439101756</v>
       </c>
       <c r="P39" t="n">
-        <v>129.3905558447897</v>
+        <v>388.9786422176122</v>
       </c>
       <c r="Q39" t="n">
-        <v>274.1704452883095</v>
+        <v>381.4394988809227</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>37.11869902876168</v>
+        <v>37.11869902876131</v>
       </c>
       <c r="K40" t="n">
         <v>193.080704039101</v>
@@ -37800,7 +37800,7 @@
         <v>154.3775692013207</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.30255426075742</v>
+        <v>84.30255426075757</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>221.3608864996538</v>
+        <v>24.65887136861603</v>
       </c>
       <c r="K42" t="n">
         <v>93.45971258550377</v>
@@ -37879,10 +37879,10 @@
         <v>129.3905558447897</v>
       </c>
       <c r="Q42" t="n">
-        <v>53.71893001299806</v>
+        <v>282.1151185758745</v>
       </c>
       <c r="R42" t="n">
-        <v>31.69417343183869</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.16260010864944</v>
+        <v>37.11869902876168</v>
       </c>
       <c r="K43" t="n">
         <v>26.560428541443</v>
@@ -37955,10 +37955,10 @@
         <v>298.6827826110555</v>
       </c>
       <c r="P43" t="n">
-        <v>236.0334361904526</v>
+        <v>128.03764399955</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>83.03969327079041</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>221.3608864996538</v>
+        <v>24.65887136861603</v>
       </c>
       <c r="K45" t="n">
-        <v>93.45971258550377</v>
+        <v>319.9958482165469</v>
       </c>
       <c r="L45" t="n">
-        <v>156.0819068634292</v>
+        <v>157.9419597952624</v>
       </c>
       <c r="M45" t="n">
         <v>194.849278262262</v>
@@ -38119,7 +38119,7 @@
         <v>53.71893001299806</v>
       </c>
       <c r="R45" t="n">
-        <v>31.69417343183869</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
